--- a/results/diathermy_CONSQ/data_diathermy_CONSQ_recipe.xlsx
+++ b/results/diathermy_CONSQ/data_diathermy_CONSQ_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162838525915], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.143209459045227e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.61551885868734e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002650207422138604], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.762200002678149e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733723200972968e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01709327087558821], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0001743240484626457], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410065572304]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018692902436553068], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002639561509961085], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.67620467701607e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.19037534148227e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.0868760308874275e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.846796650980482e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342434309371e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036242875567e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 6.378781672438107e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606079829792], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766937036892e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005038162838525915]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.04535207926680944], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009201302608362256], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.007230671725515386], ["'marginal heating grid' (megajoule, GLO, None)", -0.15923734698750303], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.42287595382942095], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516825921495], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.8038680173893764], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.06719263459781655], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.16712494251503]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.01658025351420709], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.02547588990486098], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.003763717484265631], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.000302915102746047], ["'marginal heating grid' (megajoule, GLO, None)", -0.006530479622729311], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020218838617056343], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001446017211398888], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.014885247558419136], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001778788263113802], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0143805003884544], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004177932421215647], ["'erbe - CONSQ' (unit, GLO, None)", 0.04535207926680944]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.03395248642696888], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509249354498], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0035374321300458834], ["'marginal heating grid' (megajoule, GLO, None)", -0.007162842512205349], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.03522084807713217], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.0250459448128144e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6344497649226785], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381563596254174], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561156992196]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.008074924290001633], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.015926459411735098], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00010434349558155079], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819392413415637], ["'marginal heating grid' (megajoule, GLO, None)", -0.0002937551896694644], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584561655632], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450135600114], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00036086994494214546], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001736175483912247], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110548979933], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009604658349], ["'erbe - CONSQ' (unit, GLO, None)", 0.03395248642696888]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.04139776070214166], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00043158746981467944], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367313164752015], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900801120142], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0484417132057831], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.60517210820278e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.8557471316817099], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0024549094918286697], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272075292617]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.009618214705484329], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.019365959666027922], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00017653732034149424], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00018296019598797723], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003765587483967745], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054093825714], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265640478], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00048401224912308596], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002400287192030293], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714296442024], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187247847593], ["'erbe - CONSQ' (unit, GLO, None)", 0.04139776070214166]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.154164020355501], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459864395148], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.22168367124229738], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205355751905004], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.9425449786410885], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836985743878029], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 141.1387233766266], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.22765496152101933], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646472188255]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.6834654707266099], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.0702689500588902], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272290795463], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00928701158075255], ["'marginal heating grid' (megajoule, GLO, None)", -0.02954986992845586], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.052109600034804165], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922925882169], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276509126062962], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5621001954456217], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110622017997], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113300391913], ["'erbe - CONSQ' (unit, GLO, None)", 2.154164020355501]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01042091457889873], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109146232024], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824469448827355], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222221710666], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0035731900357995386], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173962171904216], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.2314324102555366], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.039286400323167985], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828450651641]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0042150031350942], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.006206331269116353], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.001198292450429129], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467219090354242e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0019915843150046736], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120167740782], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.000360334164920918], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392659719155], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005323275708629376], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919315295154], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001119529095308969], ["'erbe - CONSQ' (unit, GLO, None)", 0.01042091457889873]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.981530013685165e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220204026484535e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.9141209857646878e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.7888408805696134e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.772997532133946e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782170572384e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001202595874660757], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.0991178003039205e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860514387818e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.804243757847025e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.4340505594878506e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448954568496e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.220815010453822e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.1437309705381898e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356871111205e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114507503468e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.6980541769069195e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.768476434483815e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746602620446e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407245891072e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.981530013685165e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.74816459541689e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.497754500198421e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.113337011229265e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4565778210068083e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.2599353940196093e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264417249283e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 2.9757243867779e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.727159356345668e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098921960242e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.62164209465198e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.8614739098120407e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860246783273e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.3042727376374748e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666342558926e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252794610732e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062342598046e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581883739261e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.161967407280535e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.97808212094744e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295532773523e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.74816459541689e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.007023573052499541], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00012238156998161924], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.001086185355504143], ["'marginal heating grid' (megajoule, GLO, None)", -0.002719128370813197], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007893174898196482], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.574875875590654e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1466627091809317], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0020370235202748594], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179595999194]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0011486521772212763], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0032576206880115875], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917904200764e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.550364904587576e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411872350728], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005316997850623336], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467593164912], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0004168914102911343], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005069781219526861], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242757164648], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955002445638], ["'erbe - CONSQ' (unit, GLO, None)", 0.007023573052499541]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.2679148362062361], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00777779540838294], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219716178555543], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724550427867], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5678474456905604], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003533811467833778], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 15.60915431865751], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.05012957016238562], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613419157432]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.04689379768870486], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.1337065126390653], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435209388467], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754623567360657], ["'marginal heating grid' (megajoule, GLO, None)", -0.00443030318459547], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.012671557263827236], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0104529278195002], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00868648444858937], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05001341758757129], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958649225089], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819495821525], ["'erbe - CONSQ' (unit, GLO, None)", 0.2679148362062361]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182940498065], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786115050999e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.809583879248787e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814229931832], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.00022132275509573662], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.57453851399467e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.04686770158369049], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002717600490744202], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464181243083]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0003473585002897625], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0005509266090737631], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616732654067e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.58090406422324e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004518923679434128], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694669636273e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186053373779e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547221985032], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.405213759697054e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868911858711e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991490591116], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002185182940498065]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1786632070764052], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087301494249694], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03563820370629032], ["'marginal heating grid' (megajoule, GLO, None)", -0.052751771368798495], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0008101278074581499], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518025185173297], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.143253529782291], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.01906269390974535], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500136533273381]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.058491398182693416], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.08821417099630072], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00015579298786687655], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.001492994087849565], ["'marginal heating grid' (megajoule, GLO, None)", -0.002163401830688941], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204442195634998], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.659755078320592e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409588734798173], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0004680829051204934], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643990596036611], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.000278403110988241], ["'erbe - CONSQ' (unit, GLO, None)", 0.1786632070764052]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.117716680930259e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534370232497e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393643036943077e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00017144937286688632], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -2.8050944862038058e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9785075835569935e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04914672660705546], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701023385510098e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829512015039]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 9.039319982649652e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.447759522449494e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.628614030129789e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.935286310474123e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.031306769540634e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249543932766e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268138696004], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.780967794251713e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002291347025415258], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302353743], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446814901856992e-07], ["'erbe - CONSQ' (unit, GLO, None)", 3.117716680930259e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.748270715853646e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500206805673e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.421745416504724e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437469554159e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 8.63621385484845e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.4226338829514233e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 6.325023741337618e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.9006803534264946e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006725195326e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.9652286754264524e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.030513990835869e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850732030462e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334745148971132e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.502927196351598e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.058503652292342e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481038657837e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517377644836e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.897705006722041e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286107728718e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256834238398e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.748270715853646e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765744907634], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.0465923831743385e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.685511332614311e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001620942318490803], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.5581643172825957e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.1484078335268315e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005525409853231947], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506467185797], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913472807571]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.559603432933442e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.737321514289625e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.8823509111572225e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250433875651497e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.6476432701146105e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.3100514273887395e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857096859025e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291479207544e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.868220327150257e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650678576756], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117930304102e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0001756765744907634]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203803347026], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.461725922532235e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891974311098616e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00035365934943189974], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.404060710615562e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454284068856e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.004568779648919683], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384040418635], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160839622599]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001399832309566744], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002342238192344813], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.9790701882133845e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.72512183419537e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.4503916440117417e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.956601933563335e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320075076455e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987096531542e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.456429835519641e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748265620057e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186585380671e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004744203803347026]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715974979582], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6594221721790343e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.087232085496638e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00037375021258968636], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.55635644124873e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350437065417914e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.004695398982789862], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416589640706], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382337682947]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00014297635692104243], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002396869278262544], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.78773050843063e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069213281276235e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.532786242350073e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109901376634e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.08050155360829e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.8052420736509395e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.495036102280947e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771321245971e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.32451872061723e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004852715974979582]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184372306978], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.364331037726373e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.910137577891516e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00046796167160805007], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00043193501850978484], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701465984415e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005851685931801041], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805785774592], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874626378654]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018270417382038582], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00025148701741728197], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.5806843873934875e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.313800194644554e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.919156666742604e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597531732857e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847804463869e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728430762162], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 6.72981416752173e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767022744556e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840177879725e-05], ["'erbe - CONSQ' (unit, GLO, None)", 0.0004213184372306978]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.946320061771894e-09], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.6575237463402207e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.715084336438502e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.0509528808922082e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.2626265830775595e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358493645793126e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.069867812322587e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.358886207589993e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.929309301260583e-10]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.350656965328683e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.753612348184546e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4960801376868983e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.556363220738369e-11], ["'marginal heating grid' (megajoule, GLO, None)", -4.310060738234893e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.352332043433089e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.402905370628461e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.315359373691017e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.431614251165793e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.736566454110415e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.807603285919756e-11], ["'erbe - CONSQ' (unit, GLO, None)", 1.946320061771894e-09]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.383671061951861e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.519434765880666e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.5508684769241695e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.848388961019837e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.653491268252673e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563440561773e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 8.277848342613235e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.479170246373914e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.423183336684641e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.790490105346289e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.2694775894942613e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.215123486264729e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4875681407712047e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.1681522217904698e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6212734809939683e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013618799105027e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.0299201867979477e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.648833578280139e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.294725186068439e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.959897430823519e-08], ["'erbe - CONSQ' (unit, GLO, None)", 2.383671061951861e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.00323165887926589], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.001233946710688443], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005921687295875154], ["'marginal heating grid' (megajoule, GLO, None)", -0.01657181192105206], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0012880156403372916], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633783056014], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.04683977464819275], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774322850815], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081597665678]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0008073405381023492], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.001768318307525268], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357974564848], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.4807771445772943e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262441538068], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042420337742], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333292837908], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270329675855], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 9.198285075402912e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530635472977], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359663139945], ["'erbe - CONSQ' (unit, GLO, None)", 0.00323165887926589]]</t>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.708647575304586e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094477562509e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.615516698021323e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00026502074485993977], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.762200077382206e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733722656701936e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01756654100508888], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404750938126], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410067029918]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018692901985677355], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002639561437063305], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204630839437e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1903744363127453e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.086876041739258e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.846796558965726e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342436404283e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036191973669e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 6.449699386866484e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606075708758], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766941679023e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.708647575304586e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003338416358250172], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009201302574853971], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00723066842393083], ["'marginal heating grid' (megajoule, GLO, None)", -0.15923734666357384], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.42287595398004696], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00175755166444939], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9646565389763554], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0671926349188325], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1671249425888541]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.016580250670411648], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.025475884916437912], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0037637174705593412], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003029149644325039], ["'marginal heating grid' (megajoule, GLO, None)", -0.006530479609444658], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.02021883860482078], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001446017213495634], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.014885247573711749], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002019723703034036], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01438050035152813], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004177932430938834], ["'erbe - CONSQ' (unit, GLO, None)", 0.003338416358250172]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.002499280121348404], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509248740260136], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.003537431486048284], ["'marginal heating grid' (megajoule, GLO, None)", -0.0071628425726198465], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.03522084810126723], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045109379617e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6426218484131022], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381563924218197], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158537264]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.008074923860057693], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.015926458703472833], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001043434930690611], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819389715511395], ["'marginal heating grid' (megajoule, GLO, None)", -0.00029375519214712214], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584528050269], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450140678571], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000360869941043236], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001748421037928708], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110538746787], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605452247], ["'erbe - CONSQ' (unit, GLO, None)", 0.002499280121348404]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003047335002099158], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874621273454], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367312296791296], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900884890843], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04844171323745534], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605170903835709e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.8664968129423511], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909530914458], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077585258]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.009618214152211061], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.019365958757071897], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001765373171970532], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00018296015962643015], ["'marginal heating grid' (megajoule, GLO, None)", -0.000376558751832293], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054049179376], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.00190152926634916], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000484012242776323], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.00241639517749037], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714295047931], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248922228], ["'erbe - CONSQ' (unit, GLO, None)", 0.003047335002099158]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1585703930356587], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459858132963], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2216835263690359], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205356007211903], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.9425449799813138], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836982021709697], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 141.5574455560298], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.22765495543207587], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646479489531]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.6834654023689994], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.0702688545764543], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272288233968], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.009287005511565543], ["'marginal heating grid' (megajoule, GLO, None)", -0.029549870975494465], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.052109599531000236], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922927616582], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276508751262969], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5627276345119683], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110619603612], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113301508181], ["'erbe - CONSQ' (unit, GLO, None)", 0.1585703930356587]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0007670948067031236], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109059239042], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824459485320748], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222214569379], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0035731900747871634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173961779703865], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.2746579765467348], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.03928640040920183], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828452417928]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0042150017962728995], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.006206329044021894], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924468707523], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467214916334535e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.001991584312075962], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120146504357], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341655758295], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392662979953], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005970994264730407], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919307821882], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001119529097544877], ["'erbe - CONSQ' (unit, GLO, None)", 0.0007670948067031236]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.458626648509466e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220203878210635e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.9141201677226688e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.7888408711093582e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.7729976013527e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782031499294e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001292046233549699], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.0991178224750953e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860517277807e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.804242213632344e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.4340507708800162e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448893918272e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2208146677508318e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.1437309666584464e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.059735676914575e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114514333557e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.6980542007424164e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.902514369425589e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746599961909e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407245847328e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.458626648509466e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286843407990677e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977544837040577e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.113336267834382e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4565778175516893e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.2599354036248854e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926443609046e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 3.718998333941557e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.727159362458529e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926776161e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.6216420926311e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.861473904902006e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860179314432e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.3042724262064681e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666328389145e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252735540208e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349495569e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581885911533e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.275734954902417e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082110652847e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295540109236e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.286843407990677e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128814814835], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702734945], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.001086184905102312], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027191283921254986], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007893174916929953], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748753720274464e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1688539235653138], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0020370235638426425], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598786306]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0011486515834884675], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0032576197284634907], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916139683e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.5503630177156214e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411959754566], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005316997844771988], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467599647543], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000416891402480646], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005402308070769754], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242755248134], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955014521391], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128814814835]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01972150796041519], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.007777795366928466], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219701491108625], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724739586253], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5678474461253961], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338111301990984], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 15.78312299583488], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.05012956994521001], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613424555118]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.04689379292280411], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.13370650547971907], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435039822335], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754617414336898], ["'marginal heating grid' (megajoule, GLO, None)", -0.004430303262171177], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.012671557200140944], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292783574934], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.008686484180844518], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05027410297519043], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958646670676], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819498159275], ["'erbe - CONSQ' (unit, GLO, None)", 0.01972150796041519]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.608534916634321e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786142065375e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.8095762663136158e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814363773579], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0002213227557080641], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538400876316e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05799746408160265], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004859109735], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464185997258]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00034735839802847805], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0005509264552758885], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616843154157e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.580872171293688e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.00045189237343239396], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694657026055e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186043186673e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547213128398], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 9.0729660419996e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868955049453e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991491567203], ["'erbe - CONSQ' (unit, GLO, None)", 1.608534916634321e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0131516129833929], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087285929454446], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03563798662295091], ["'marginal heating grid' (megajoule, GLO, None)", -0.052751728557383554], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0008101290484227198], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518015734151383], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1471184336105819], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.01906269157235192], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500144037027387]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0584911725676765], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0882138109855534], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00015579292420035614], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014929849935600497], ["'marginal heating grid' (megajoule, GLO, None)", -0.002163400074950867], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204409681373272], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.65973694078888e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409604171031944], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0004738762212937194], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643987657930669], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784028272978469], ["'erbe - CONSQ' (unit, GLO, None)", 0.0131516129833929]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.294988757437583e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534217500262e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393642645242809e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001714493896149166], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -2.805093952603841e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978510197036117e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04774249846679117], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701025774930203e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829507813987]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 9.039319663435558e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.447755360518234e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.628613967655919e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.935286146378821e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.031307456393766e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249087051157e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268138490527], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809681381385995e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002270305203886756], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302018095], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810918480291e-07], ["'erbe - CONSQ' (unit, GLO, None)", 2.294988757437583e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286921465698321e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500191220164e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.421745326725538e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437485043113e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 8.636213857369797e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633546938686e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.185283663592732e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361547002e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006736347288e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.9652287057615716e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.030513932082625e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850668279214e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334744772858474e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.50292720270377e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.058503646206267e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481040127809e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517377016427e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.026611661583984e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286101358165e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256839796487e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.286921465698321e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.293174847123674e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592321122699e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.6855106435975064e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001620942317848225], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.5581643502419355e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407694244114e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005885703528708898], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506510875856], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913478837219]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.559603670901072e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.73732176302685e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350885775507e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250430989147944e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.647643267479336e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051387528155e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857107286683e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291427003406e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.922208953595558e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650677168277], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117932132138e-05], ["'erbe - CONSQ' (unit, GLO, None)", 1.293174847123674e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.492260953879227e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259114280192e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891973188272936e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003536593481843594], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.404060761986474e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454091940828e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.004935220314660796], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384161672488], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160852305491]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00013998322476015498], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002342238073023722], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070142792498e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.725121363809119e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.4503916388954564e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.956601888910055e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320076514746e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987101645059e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.511339563800837e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748255618274e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592887837e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.492260953879227e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.572137897680728e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.659422160303712e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.0872308228627e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003737502107148687], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.556356496770896e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.3504368710478165e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005075476159334883], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416713585934], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382350213585]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001429763476388756], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00023968691098023663], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730459855598e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069207991713887e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.5327862346612623e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.1901098553425385e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.080501555075226e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242077368841e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.551989209555403e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771310358528e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728781146e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.572137897680728e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.101371859094197e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310101494841e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.910136531838032e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.000467961670890786], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004319350194019411], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701456194072e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01184196449733733], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805808818266], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874626353309]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018270417490436845], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00025148701506636114], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684274592482e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.31379975642054e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9191566638010333e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597521133421e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847799325721e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0002317272845850981], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.57060172332956e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767042670304e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181495679e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.101371859094197e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.432709204184066e-10], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.657523593295437e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.7150648846178803e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.0509525005584939e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.262626594826791e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3584927818409095e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.140410542555531e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.3588860097317696e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.929309975278546e-10]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.350636835892896e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.753580211506025e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4960800750851826e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5563550717717644e-11], ["'marginal heating grid' (megajoule, GLO, None)", -4.310059178449065e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.352331747304875e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.402905211133708e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.315360734870458e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.537321521081128e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.736566425442301e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.807603039047006e-11], ["'erbe - CONSQ' (unit, GLO, None)", 1.432709204184066e-10]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.754646675324546e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5194347579502777e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.5508672501126435e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.84838896260101e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.65349127336064e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.38856324222597e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 8.780654073489554e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.479170253120365e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.423183343325037e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.790489685129886e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.269477510516358e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.215123453826126e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4875676268220813e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.1681522224389243e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6212734756807506e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013618800543031e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.0299201763261e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.724177090435862e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.294725184190174e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.959897433824804e-08], ["'erbe - CONSQ' (unit, GLO, None)", 1.754646675324546e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002378858529676791], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467081940241], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005921683789926144], ["'marginal heating grid' (megajoule, GLO, None)", -0.01657181191244609], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0012880156517924993], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633730153153], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05547848268619235], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774345851207], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598326009]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0008073398835004508], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0017683172461007263], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357964361632], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.480775675827301e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262438008675], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042402306164], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333295305438], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270327452264], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0001049276240050126], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530634316128], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359672377795], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002378858529676791]]</t>
   </si>
 </sst>
 </file>

--- a/results/diathermy_CONSQ/data_diathermy_CONSQ_recipe.xlsx
+++ b/results/diathermy_CONSQ/data_diathermy_CONSQ_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.708647575304586e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094477562509e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.615516698021323e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00026502074485993977], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.762200077382206e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733722656701936e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01756654100508888], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404750938126], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410067029918]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018692901985677355], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002639561437063305], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204630839437e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.1903744363127453e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.086876041739258e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.846796558965726e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342436404283e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036191973669e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 6.449699386866484e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606075708758], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766941679023e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.708647575304586e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003338416358250172], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009201302574853971], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00723066842393083], ["'marginal heating grid' (megajoule, GLO, None)", -0.15923734666357384], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.42287595398004696], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00175755166444939], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9646565389763554], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0671926349188325], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1671249425888541]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.016580250670411648], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.025475884916437912], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0037637174705593412], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003029149644325039], ["'marginal heating grid' (megajoule, GLO, None)", -0.006530479609444658], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.02021883860482078], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001446017213495634], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.014885247573711749], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002019723703034036], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01438050035152813], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004177932430938834], ["'erbe - CONSQ' (unit, GLO, None)", 0.003338416358250172]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.002499280121348404], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509248740260136], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.003537431486048284], ["'marginal heating grid' (megajoule, GLO, None)", -0.0071628425726198465], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.03522084810126723], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045109379617e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6426218484131022], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381563924218197], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158537264]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.008074923860057693], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.015926458703472833], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001043434930690611], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00014819389715511395], ["'marginal heating grid' (megajoule, GLO, None)", -0.00029375519214712214], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584528050269], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450140678571], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000360869941043236], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001748421037928708], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110538746787], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605452247], ["'erbe - CONSQ' (unit, GLO, None)", 0.002499280121348404]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003047335002099158], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874621273454], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004367312296791296], ["'marginal heating grid' (megajoule, GLO, None)", -0.009181900884890843], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04844171323745534], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605170903835709e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.8664968129423511], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909530914458], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077585258]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.009618214152211061], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.019365958757071897], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001765373171970532], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00018296015962643015], ["'marginal heating grid' (megajoule, GLO, None)", -0.000376558751832293], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054049179376], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.00190152926634916], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000484012242776323], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.00241639517749037], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714295047931], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248922228], ["'erbe - CONSQ' (unit, GLO, None)", 0.003047335002099158]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1585703930356587], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459858132963], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.2216835263690359], ["'marginal heating grid' (megajoule, GLO, None)", -0.7205356007211903], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.9425449799813138], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836982021709697], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 141.5574455560298], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.22765495543207587], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646479489531]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.6834654023689994], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.0702688545764543], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272288233968], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.009287005511565543], ["'marginal heating grid' (megajoule, GLO, None)", -0.029549870975494465], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.052109599531000236], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922927616582], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276508751262969], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5627276345119683], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110619603612], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113301508181], ["'erbe - CONSQ' (unit, GLO, None)", 0.1585703930356587]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0007670948067031236], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109059239042], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0017824459485320748], ["'marginal heating grid' (megajoule, GLO, None)", -0.04856222214569379], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0035731900747871634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173961779703865], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.2746579765467348], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.03928640040920183], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828452417928]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0042150017962728995], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.006206329044021894], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924468707523], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467214916334535e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.001991584312075962], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120146504357], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341655758295], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392662979953], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005970994264730407], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919307821882], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001119529097544877], ["'erbe - CONSQ' (unit, GLO, None)", 0.0007670948067031236]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.458626648509466e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220203878210635e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.9141201677226688e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.7888408711093582e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.7729976013527e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782031499294e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001292046233549699], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.0991178224750953e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860517277807e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.804242213632344e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.4340507708800162e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448893918272e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2208146677508318e-07], ["'marginal heating grid' (megajoule, GLO, None)", -1.1437309666584464e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.059735676914575e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114514333557e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.6980542007424164e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.902514369425589e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746599961909e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407245847328e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.458626648509466e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286843407990677e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977544837040577e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.113336267834382e-07], ["'marginal heating grid' (megajoule, GLO, None)", -2.4565778175516893e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.2599354036248854e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926443609046e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 3.718998333941557e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.727159362458529e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926776161e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.6216420926311e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.861473904902006e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860179314432e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.3042724262064681e-08], ["'marginal heating grid' (megajoule, GLO, None)", -1.0074666328389145e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252735540208e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349495569e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581885911533e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.275734954902417e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082110652847e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295540109236e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.286843407990677e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128814814835], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702734945], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.001086184905102312], ["'marginal heating grid' (megajoule, GLO, None)", -0.0027191283921254986], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007893174916929953], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748753720274464e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1688539235653138], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0020370235638426425], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598786306]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0011486515834884675], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0032576197284634907], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916139683e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -4.5503630177156214e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00011151411959754566], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005316997844771988], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467599647543], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000416891402480646], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005402308070769754], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242755248134], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955014521391], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128814814835]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01972150796041519], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.007777795366928466], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.035219701491108625], ["'marginal heating grid' (megajoule, GLO, None)", -0.10802724739586253], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5678474461253961], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338111301990984], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 15.78312299583488], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.05012956994521001], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613424555118]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.04689379292280411], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.13370650547971907], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435039822335], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014754617414336898], ["'marginal heating grid' (megajoule, GLO, None)", -0.004430303262171177], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.012671557200140944], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292783574934], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.008686484180844518], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05027410297519043], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958646670676], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819498159275], ["'erbe - CONSQ' (unit, GLO, None)", 0.01972150796041519]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.608534916634321e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786142065375e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.8095762663136158e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.011018814363773579], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0002213227557080641], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538400876316e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05799746408160265], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004859109735], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464185997258]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00034735839802847805], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0005509264552758885], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616843154157e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.580872171293688e-07], ["'marginal heating grid' (megajoule, GLO, None)", -0.00045189237343239396], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694657026055e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186043186673e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547213128398], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 9.0729660419996e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868955049453e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991491567203], ["'erbe - CONSQ' (unit, GLO, None)", 1.608534916634321e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0131516129833929], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087285929454446], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03563798662295091], ["'marginal heating grid' (megajoule, GLO, None)", -0.052751728557383554], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0008101290484227198], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518015734151383], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1471184336105819], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.01906269157235192], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500144037027387]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0584911725676765], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0882138109855534], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00015579292420035614], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0014929849935600497], ["'marginal heating grid' (megajoule, GLO, None)", -0.002163400074950867], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204409681373272], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.65973694078888e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409604171031944], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0004738762212937194], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643987657930669], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784028272978469], ["'erbe - CONSQ' (unit, GLO, None)", 0.0131516129833929]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.294988757437583e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534217500262e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.393642645242809e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001714493896149166], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -2.805093952603841e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978510197036117e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04774249846679117], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701025774930203e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829507813987]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 9.039319663435558e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.447755360518234e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.628613967655919e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.935286146378821e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.031307456393766e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249087051157e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268138490527], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809681381385995e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002270305203886756], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302018095], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810918480291e-07], ["'erbe - CONSQ' (unit, GLO, None)", 2.294988757437583e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286921465698321e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500191220164e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.421745326725538e-08], ["'marginal heating grid' (megajoule, GLO, None)", -8.541437485043113e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 8.636213857369797e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633546938686e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.185283663592732e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361547002e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006736347288e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.9652287057615716e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.030513932082625e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850668279214e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4334744772858474e-09], ["'marginal heating grid' (megajoule, GLO, None)", -3.50292720270377e-09], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.058503646206267e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481040127809e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517377016427e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.026611661583984e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286101358165e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256839796487e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.286921465698321e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.293174847123674e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592321122699e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.6855106435975064e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001620942317848225], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.5581643502419355e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407694244114e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005885703528708898], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506510875856], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913478837219]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.559603670901072e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.73732176302685e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350885775507e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.1250430989147944e-06], ["'marginal heating grid' (megajoule, GLO, None)", -6.647643267479336e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051387528155e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857107286683e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291427003406e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.922208953595558e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650677168277], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117932132138e-05], ["'erbe - CONSQ' (unit, GLO, None)", 1.293174847123674e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.492260953879227e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259114280192e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.891973188272936e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003536593481843594], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.404060761986474e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454091940828e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.004935220314660796], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384161672488], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160852305491]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00013998322476015498], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002342238073023722], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070142792498e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.725121363809119e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.4503916388954564e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.956601888910055e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320076514746e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987101645059e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.511339563800837e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748255618274e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592887837e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.492260953879227e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.572137897680728e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.659422160303712e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -9.0872308228627e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003737502107148687], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.556356496770896e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.3504368710478165e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005075476159334883], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416713585934], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382350213585]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001429763476388756], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00023968691098023663], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730459855598e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.8069207991713887e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.5327862346612623e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.1901098553425385e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.080501555075226e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242077368841e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.551989209555403e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771310358528e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728781146e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.572137897680728e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.101371859094197e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310101494841e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.910136531838032e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.000467961670890786], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004319350194019411], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701456194072e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01184196449733733], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805808818266], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874626353309]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018270417490436845], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00025148701506636114], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684274592482e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.31379975642054e-06], ["'marginal heating grid' (megajoule, GLO, None)", -1.9191566638010333e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597521133421e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847799325721e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0002317272845850981], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.57060172332956e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767042670304e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181495679e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.101371859094197e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.432709204184066e-10], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.657523593295437e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.7150648846178803e-10], ["'marginal heating grid' (megajoule, GLO, None)", -1.0509525005584939e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.262626594826791e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3584927818409095e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.140410542555531e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.3588860097317696e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.929309975278546e-10]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.350636835892896e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.753580211506025e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4960800750851826e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5563550717717644e-11], ["'marginal heating grid' (megajoule, GLO, None)", -4.310059178449065e-11], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.352331747304875e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.402905211133708e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.315360734870458e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.537321521081128e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.736566425442301e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.807603039047006e-11], ["'erbe - CONSQ' (unit, GLO, None)", 1.432709204184066e-10]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.754646675324546e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5194347579502777e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.5508672501126435e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.84838896260101e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.65349127336064e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.38856324222597e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 8.780654073489554e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.479170253120365e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.423183343325037e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.790489685129886e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.269477510516358e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.215123453826126e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4875676268220813e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.1681522224389243e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6212734756807506e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013618800543031e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.0299201763261e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.724177090435862e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.294725184190174e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.959897433824804e-08], ["'erbe - CONSQ' (unit, GLO, None)", 1.754646675324546e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002378858529676791], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467081940241], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005921683789926144], ["'marginal heating grid' (megajoule, GLO, None)", -0.01657181191244609], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0012880156517924993], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633730153153], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05547848268619235], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774345851207], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598326009]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0008073398835004508], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0017683172461007263], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357964361632], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.480775675827301e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0006796262438008675], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042402306164], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333295305438], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270327452264], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0001049276240050126], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530634316128], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359672377795], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002378858529676791]]</t>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.708647575304586e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094477562509e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.000314256362502988], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003037820258952947], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.762200077382206e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733722656701936e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01756654100508888], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404750938126], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410067029918]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018692901985677355], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002639561437063305], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204630839437e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.137708939308217e-05], ["'marginal heating grid' (megajoule, GLO, None)", -6.899805192690043e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.846796558965726e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342436404283e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036191973669e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 6.449699386866484e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606075708758], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766941679023e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.708647575304586e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003338416358250172], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009201302574853971], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.02983754940699039], ["'marginal heating grid' (megajoule, GLO, None)", -0.18252700856763715], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.42287595398004696], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00175755166444939], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9646565389763554], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0671926349188325], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1671249425888541]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.016580250670411648], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.025475884916437912], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0037637174705593412], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0067770065634645965], ["'marginal heating grid' (megajoule, GLO, None)", -0.04145738372142017], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.02021883860482078], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001446017213495634], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.014885247573711749], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002019723703034036], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01438050035152813], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004177932430938834], ["'erbe - CONSQ' (unit, GLO, None)", 0.003338416358250172]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.002499280121348404], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509248740260136], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.014597306991630737], ["'marginal heating grid' (megajoule, GLO, None)", -0.008210462275432366], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.03522084810126723], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045109379617e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6426218484131022], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381563924218197], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158537264]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.008074923860057693], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.015926458703472833], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001043434930690611], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0033154882776000563], ["'marginal heating grid' (megajoule, GLO, None)", -0.0018648433881318523], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584528050269], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450140678571], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000360869941043236], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001748421037928708], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110538746787], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605452247], ["'erbe - CONSQ' (unit, GLO, None)", 0.002499280121348404]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003047335002099158], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874621273454], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.01802183267040563], ["'marginal heating grid' (megajoule, GLO, None)", -0.01052482308075939], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04844171323745534], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605170903835709e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.8664968129423511], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909530914458], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077585258]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.009618214152211061], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.019365958757071897], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001765373171970532], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0040933012502825], ["'marginal heating grid' (megajoule, GLO, None)", -0.0023905044655208635], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054049179376], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.00190152926634916], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000484012242776323], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.00241639517749037], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714295047931], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248922228], ["'erbe - CONSQ' (unit, GLO, None)", 0.003047335002099158]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1585703930356587], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459858132963], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.914783085455896], ["'marginal heating grid' (megajoule, GLO, None)", -0.8259193620199234], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.9425449799813138], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836982021709697], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 141.5574455560298], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.22765495543207587], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646479489531]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.6834654023689994], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.0702688545764543], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272288233968], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.20777480381242625], ["'marginal heating grid' (megajoule, GLO, None)", -0.18759117449471796], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.052109599531000236], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922927616582], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276508751262969], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5627276345119683], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110619603612], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113301508181], ["'erbe - CONSQ' (unit, GLO, None)", 0.1585703930356587]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0007670948067031236], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109059239042], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0073553115613207935], ["'marginal heating grid' (megajoule, GLO, None)", -0.055664813081680205], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0035731900747871634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173961779703865], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.2746579765467348], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.03928640040920183], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828452417928]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0042150017962728995], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.006206329044021894], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924468707523], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0016706128927504956], ["'marginal heating grid' (megajoule, GLO, None)", -0.012643156395417493], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120146504357], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341655758295], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392662979953], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005970994264730407], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919307821882], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001119529097544877], ["'erbe - CONSQ' (unit, GLO, None)", 0.0007670948067031236]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.458626648509466e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220203878210635e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2025195927192475e-05], ["'marginal heating grid' (megajoule, GLO, None)", -3.196729864195854e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.7729976013527e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782031499294e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001292046233549699], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.0991178224750953e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860517277807e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.804242213632344e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.4340507708800162e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448893918272e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.7312843495933486e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.260736790335406e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.059735676914575e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114514333557e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.6980542007424164e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.902514369425589e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746599961909e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407245847328e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.458626648509466e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286843407990677e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977544837040577e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2847266568694767e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8158708352422957e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.2599354036248854e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926443609046e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 3.718998333941557e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.727159362458529e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926776161e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.6216420926311e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.861473904902006e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860179314432e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.9180013636852415e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.395691171552681e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252735540208e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349495569e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581885911533e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.275734954902417e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082110652847e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295540109236e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.286843407990677e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128814814835], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702734945], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004482171477239271], ["'marginal heating grid' (megajoule, GLO, None)", -0.003116821409832812], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007893174916929953], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748753720274464e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1688539235653138], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0020370235638426425], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598786306]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0011486515834884675], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0032576197284634907], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916139683e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010180362034929009], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007079240611708961], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005316997844771988], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467599647543], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000416891402480646], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005402308070769754], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242755248134], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955014521391], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128814814835]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01972150796041519], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.007777795366928466], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14533505365318902], ["'marginal heating grid' (megajoule, GLO, None)", -0.123827046381409], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5678474461253961], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338111301990984], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 15.78312299583488], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.05012956994521001], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613424555118]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.04689379292280411], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.13370650547971907], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435039822335], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03300997005733952], ["'marginal heating grid' (megajoule, GLO, None)", -0.02812485350638878], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.012671557200140944], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292783574934], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.008686484180844518], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05027410297519043], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958646670676], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819498159275], ["'erbe - CONSQ' (unit, GLO, None)", 0.01972150796041519]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.608534916634321e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786142065375e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467265553645337e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.012630398998238148], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0002213227557080641], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538400876316e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05799746408160265], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004859109735], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464185997258]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00034735839802847805], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0005509264552758885], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616843154157e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.6960410179105247e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.002868744203576678], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694657026055e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186043186673e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547213128398], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 9.0729660419996e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868955049453e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991491567203], ["'erbe - CONSQ' (unit, GLO, None)", 1.608534916634321e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0131516129833929], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087285929454446], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14706111859709478], ["'marginal heating grid' (megajoule, GLO, None)", -0.060467066376670556], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0008101290484227198], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518015734151383], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1471184336105819], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.01906269157235192], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500144037027387]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0584911725676765], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0882138109855534], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00015579292420035614], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.033402011417514865], ["'marginal heating grid' (megajoule, GLO, None)", -0.013733892824728419], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204409681373272], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.65973694078888e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409604171031944], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0004738762212937194], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643987657930669], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784028272978469], ["'erbe - CONSQ' (unit, GLO, None)", 0.0131516129833929]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.294988757437583e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534217500262e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00038763121209017213], ["'marginal heating grid' (megajoule, GLO, None)", -0.00019652515482611156], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -2.805093952603841e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978510197036117e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04774249846679117], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701025774930203e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829507813987]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 9.039319663435558e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.447755360518234e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.628613967655919e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.804272873439735e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.463678454204496e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249087051157e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268138490527], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809681381385995e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002270305203886756], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302018095], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810918480291e-07], ["'erbe - CONSQ' (unit, GLO, None)", 2.294988757437583e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286921465698321e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500191220164e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.411992491681823e-07], ["'marginal heating grid' (megajoule, GLO, None)", -9.790687082385547e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 8.636213857369797e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633546938686e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.185283663592732e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361547002e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006736347288e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.9652287057615716e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.030513932082625e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850668279214e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.207060423483902e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.2237600586129172e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.058503646206267e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481040127809e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517377016427e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.026611661583984e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286101358165e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256839796487e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.286921465698321e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.293174847123674e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592321122699e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00011081832524105476], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018580173466631184], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.5581643502419355e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407694244114e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005885703528708898], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506510875856], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913478837219]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.559603670901072e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.73732176302685e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350885775507e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.5170180944378534e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.2201172695559836e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051387528155e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857107286683e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291427003406e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.922208953595558e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650677168277], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117932132138e-05], ["'erbe - CONSQ' (unit, GLO, None)", 1.293174847123674e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.492260953879227e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259114280192e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.000366929685853986], ["'marginal heating grid' (megajoule, GLO, None)", -0.00040538469290406833], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.404060761986474e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454091940828e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.004935220314660796], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384161672488], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160852305491]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00013998322476015498], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002342238073023722], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070142792498e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.33407883282761e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.207507919183553e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.956601888910055e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320076514746e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987101645059e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.511339563800837e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748255618274e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592887837e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.492260953879227e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.572137897680728e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.659422160303712e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003749870451153819], ["'marginal heating grid' (megajoule, GLO, None)", -0.00042841399547707056], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.556356496770896e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.3504368710478165e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005075476159334883], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416713585934], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382350213585]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001429763476388756], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00023968691098023663], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730459855598e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.517085740847606e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.730572774679641e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.1901098553425385e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.080501555075226e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242077368841e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.551989209555403e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771310358528e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728781146e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.572137897680728e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.101371859094197e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310101494841e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003264139298707451], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005364045916468883], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004319350194019411], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701456194072e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01184196449733733], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805808818266], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874626353309]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018270417490436845], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00025148701506636114], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684274592482e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.413843928556866e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00012183364621130167], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597521133421e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847799325721e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0002317272845850981], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.57060172332956e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767042670304e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181495679e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.101371859094197e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.432709204184066e-10], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.657523593295437e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5330316029717788e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.204662223359573e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.262626594826791e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3584927818409095e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.140410542555531e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.3588860097317696e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.929309975278546e-10]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.350636835892896e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.753580211506025e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4960800750851826e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.4819767178682444e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.736150909415164e-10], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.352331747304875e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.402905211133708e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.315360734870458e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.537321521081128e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.736566425442301e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.807603039047006e-11], ["'erbe - CONSQ' (unit, GLO, None)", 1.432709204184066e-10]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.754646675324546e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5194347579502777e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4652750036531564e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.26498731280084e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.65349127336064e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.38856324222597e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 8.780654073489554e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.479170253120365e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.423183343325037e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.790489685129886e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.269477510516358e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.215123453826126e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.328081063759075e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.41577002409453e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6212734756807506e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013618800543031e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.0299201763261e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.724177090435862e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.294725184190174e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.959897433824804e-08], ["'erbe - CONSQ' (unit, GLO, None)", 1.754646675324546e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002378858529676791], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467081940241], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0024435988804260744], ["'marginal heating grid' (megajoule, GLO, None)", -0.018995564283766447], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0012880156517924993], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633730153153], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05547848268619235], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774345851207], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598326009]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0008073398835004508], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0017683172461007263], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357964361632], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005550149385673904], ["'marginal heating grid' (megajoule, GLO, None)", -0.004314465041074681], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042402306164], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333295305438], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270327452264], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0001049276240050126], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530634316128], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359672377795], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002378858529676791]]</t>
   </si>
 </sst>
 </file>

--- a/results/diathermy_CONSQ/data_diathermy_CONSQ_recipe.xlsx
+++ b/results/diathermy_CONSQ/data_diathermy_CONSQ_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.708647575304586e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094477562509e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.000314256362502988], ["'marginal heating grid' (megajoule, GLO, None)", -0.0003037820258952947], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.762200077382206e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733722656701936e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01756654100508888], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404750938126], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410067029918]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018692901985677355], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002639561437063305], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204630839437e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.137708939308217e-05], ["'marginal heating grid' (megajoule, GLO, None)", -6.899805192690043e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.846796558965726e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342436404283e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036191973669e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 6.449699386866484e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0003172606075708758], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.223766941679023e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.708647575304586e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003338416358250172], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.009201302574853971], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.02983754940699039], ["'marginal heating grid' (megajoule, GLO, None)", -0.18252700856763715], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.42287595398004696], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00175755166444939], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9646565389763554], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0671926349188325], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1671249425888541]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.016580250670411648], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.025475884916437912], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0037637174705593412], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0067770065634645965], ["'marginal heating grid' (megajoule, GLO, None)", -0.04145738372142017], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.02021883860482078], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001446017213495634], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.014885247573711749], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002019723703034036], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01438050035152813], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004177932430938834], ["'erbe - CONSQ' (unit, GLO, None)", 0.003338416358250172]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.002499280121348404], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00025509248740260136], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.014597306991630737], ["'marginal heating grid' (megajoule, GLO, None)", -0.008210462275432366], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.03522084810126723], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.025045109379617e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6426218484131022], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381563924218197], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02542561158537264]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.008074923860057693], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.015926458703472833], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001043434930690611], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0033154882776000563], ["'marginal heating grid' (megajoule, GLO, None)", -0.0018648433881318523], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584528050269], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450140678571], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000360869941043236], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.001748421037928708], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.009876110538746787], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009605452247], ["'erbe - CONSQ' (unit, GLO, None)", 0.002499280121348404]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003047335002099158], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0004315874621273454], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.01802183267040563], ["'marginal heating grid' (megajoule, GLO, None)", -0.01052482308075939], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04844171323745534], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605170903835709e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.8664968129423511], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909530914458], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272077585258]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.009618214152211061], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.019365958757071897], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001765373171970532], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0040933012502825], ["'marginal heating grid' (megajoule, GLO, None)", -0.0023905044655208635], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054049179376], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.00190152926634916], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000484012242776323], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.00241639517749037], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714295047931], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187248922228], ["'erbe - CONSQ' (unit, GLO, None)", 0.003047335002099158]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1585703930356587], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459858132963], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.914783085455896], ["'marginal heating grid' (megajoule, GLO, None)", -0.8259193620199234], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.9425449799813138], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836982021709697], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 141.5574455560298], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.22765495543207587], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646479489531]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.6834654023689994], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.0702688545764543], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272288233968], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.20777480381242625], ["'marginal heating grid' (megajoule, GLO, None)", -0.18759117449471796], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.052109599531000236], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922927616582], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276508751262969], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.5627276345119683], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110619603612], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113301508181], ["'erbe - CONSQ' (unit, GLO, None)", 0.1585703930356587]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0007670948067031236], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109059239042], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0073553115613207935], ["'marginal heating grid' (megajoule, GLO, None)", -0.055664813081680205], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0035731900747871634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00038173961779703865], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.2746579765467348], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.03928640040920183], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828452417928]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0042150017962728995], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.006206329044021894], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924468707523], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0016706128927504956], ["'marginal heating grid' (megajoule, GLO, None)", -0.012643156395417493], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120146504357], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341655758295], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392662979953], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005970994264730407], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919307821882], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001119529097544877], ["'erbe - CONSQ' (unit, GLO, None)", 0.0007670948067031236]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.458626648509466e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220203878210635e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2025195927192475e-05], ["'marginal heating grid' (megajoule, GLO, None)", -3.196729864195854e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.7729976013527e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424782031499294e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001292046233549699], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.0991178224750953e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860517277807e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.804242213632344e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.4340507708800162e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.771448893918272e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.7312843495933486e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.260736790335406e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.059735676914575e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114514333557e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.6980542007424164e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.902514369425589e-06], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746599961909e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407245847328e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.458626648509466e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286843407990677e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977544837040577e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2847266568694767e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.8158708352422957e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.2599354036248854e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.629926443609046e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 3.718998333941557e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.727159362458529e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.097098926776161e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.6216420926311e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.861473904902006e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860179314432e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.9180013636852415e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.395691171552681e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.6599252735540208e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062349495569e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581885911533e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.275734954902417e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082110652847e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295540109236e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.286843407990677e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128814814835], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001223815702734945], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004482171477239271], ["'marginal heating grid' (megajoule, GLO, None)", -0.003116821409832812], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007893174916929953], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748753720274464e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1688539235653138], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0020370235638426425], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179598786306]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0011486515834884675], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0032576197284634907], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917916139683e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010180362034929009], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007079240611708961], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005316997844771988], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467599647543], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.000416891402480646], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005402308070769754], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242755248134], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955014521391], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128814814835]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01972150796041519], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.007777795366928466], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14533505365318902], ["'marginal heating grid' (megajoule, GLO, None)", -0.123827046381409], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5678474461253961], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338111301990984], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 15.78312299583488], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.05012956994521001], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613424555118]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.04689379292280411], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.13370650547971907], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435039822335], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03300997005733952], ["'marginal heating grid' (megajoule, GLO, None)", -0.02812485350638878], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.012671557200140944], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292783574934], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.008686484180844518], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.05027410297519043], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958646670676], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819498159275], ["'erbe - CONSQ' (unit, GLO, None)", 0.01972150796041519]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.608534916634321e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786142065375e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467265553645337e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.012630398998238148], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.0002213227557080641], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538400876316e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05799746408160265], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004859109735], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464185997258]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00034735839802847805], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0005509264552758885], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6352616843154157e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.6960410179105247e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.002868744203576678], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694657026055e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186043186673e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547213128398], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 9.0729660419996e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868955049453e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991491567203], ["'erbe - CONSQ' (unit, GLO, None)", 1.608534916634321e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0131516129833929], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00038087285929454446], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14706111859709478], ["'marginal heating grid' (megajoule, GLO, None)", -0.060467066376670556], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0008101290484227198], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518015734151383], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1471184336105819], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.01906269157235192], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500144037027387]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0584911725676765], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0882138109855534], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00015579292420035614], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.033402011417514865], ["'marginal heating grid' (megajoule, GLO, None)", -0.013733892824728419], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00019204409681373272], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.65973694078888e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409604171031944], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0004738762212937194], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643987657930669], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784028272978469], ["'erbe - CONSQ' (unit, GLO, None)", 0.0131516129833929]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.294988757437583e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534217500262e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00038763121209017213], ["'marginal heating grid' (megajoule, GLO, None)", -0.00019652515482611156], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -2.805093952603841e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978510197036117e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04774249846679117], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701025774930203e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829507813987]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 9.039319663435558e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.447755360518234e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.628613967655919e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.804272873439735e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.463678454204496e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.881249087051157e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268138490527], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809681381385995e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -0.0002270305203886756], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944302018095], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446810918480291e-07], ["'erbe - CONSQ' (unit, GLO, None)", 2.294988757437583e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286921465698321e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500191220164e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.411992491681823e-07], ["'marginal heating grid' (megajoule, GLO, None)", -9.790687082385547e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 8.636213857369797e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633546938686e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.185283663592732e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361547002e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006736347288e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.9652287057615716e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.030513932082625e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850668279214e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.207060423483902e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.2237600586129172e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.058503646206267e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481040127809e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517377016427e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.026611661583984e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286101358165e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256839796487e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.286921465698321e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.293174847123674e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.046592321122699e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00011081832524105476], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018580173466631184], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.5581643502419355e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407694244114e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005885703528708898], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506510875856], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913478837219]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.559603670901072e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.73732176302685e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.882350885775507e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.5170180944378534e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.2201172695559836e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051387528155e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857107286683e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291427003406e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.922208953595558e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650677168277], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117932132138e-05], ["'erbe - CONSQ' (unit, GLO, None)", 1.293174847123674e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.492260953879227e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259114280192e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.000366929685853986], ["'marginal heating grid' (megajoule, GLO, None)", -0.00040538469290406833], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.404060761986474e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454091940828e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.004935220314660796], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384161672488], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160852305491]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00013998322476015498], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002342238073023722], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070142792498e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.33407883282761e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.207507919183553e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.956601888910055e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320076514746e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987101645059e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.511339563800837e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748255618274e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.253186592887837e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.492260953879227e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.572137897680728e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.659422160303712e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003749870451153819], ["'marginal heating grid' (megajoule, GLO, None)", -0.00042841399547707056], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.556356496770896e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.3504368710478165e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005075476159334883], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416713585934], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382350213585]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001429763476388756], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00023968691098023663], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730459855598e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.517085740847606e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.730572774679641e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.1901098553425385e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.080501555075226e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242077368841e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.551989209555403e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771310358528e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518728781146e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.572137897680728e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.101371859094197e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310101494841e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003264139298707451], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005364045916468883], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0004319350194019411], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701456194072e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01184196449733733], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0012784805808818266], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874626353309]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018270417490436845], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00025148701506636114], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.580684274592482e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.413843928556866e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00012183364621130167], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597521133421e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847799325721e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0002317272845850981], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.57060172332956e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767042670304e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840181495679e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.101371859094197e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.432709204184066e-10], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.657523593295437e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5330316029717788e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.204662223359573e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.262626594826791e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3584927818409095e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.140410542555531e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.3588860097317696e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.929309975278546e-10]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.350636835892896e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.753580211506025e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4960800750851826e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.4819767178682444e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.736150909415164e-10], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.352331747304875e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.402905211133708e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.315360734870458e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 3.537321521081128e-11], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.736566425442301e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.807603039047006e-11], ["'erbe - CONSQ' (unit, GLO, None)", 1.432709204184066e-10]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.754646675324546e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.5194347579502777e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.4652750036531564e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.26498731280084e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.65349127336064e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.38856324222597e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 8.780654073489554e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.479170253120365e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.423183343325037e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.790489685129886e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.269477510516358e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.215123453826126e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.328081063759075e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.41577002409453e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6212734756807506e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013618800543031e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.0299201763261e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.724177090435862e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.294725184190174e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.959897433824804e-08], ["'erbe - CONSQ' (unit, GLO, None)", 1.754646675324546e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0002378858529676791], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467081940241], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0024435988804260744], ["'marginal heating grid' (megajoule, GLO, None)", -0.018995564283766447], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0012880156517924993], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633730153153], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05547848268619235], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774345851207], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.02615081598326009]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0008073398835004508], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0017683172461007263], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357964361632], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005550149385673904], ["'marginal heating grid' (megajoule, GLO, None)", -0.004314465041074681], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042402306164], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0001731333295305438], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0036505270327452264], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0001049276240050126], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530634316128], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359672377795], ["'erbe - CONSQ' (unit, GLO, None)", 0.0002378858529676791]]</t>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.708647782999255e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094518323657e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003142565582397843], ["'marginal heating grid' (megajoule, GLO, None)", -0.00030378203108526587], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.762200026960708e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733722384697783e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.017566541172881], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404802940872], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410061026684]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018692901936546739], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00026395615739731044], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204647512451e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.137713385080676e-05], ["'marginal heating grid' (megajoule, GLO, None)", -6.899805310569929e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.846796491700468e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342432526147e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036214837418e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005153637872317309], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.000317260607559527], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.22376693367179e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.708647782999255e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.00333841620261963], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0092013025920437], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.02983756381847636], ["'marginal heating grid' (megajoule, GLO, None)", -0.18252700987174628], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.4228759539902583], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516298531568], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9646565550202538], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0671926348852812], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1671249421909153]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.016580249091741505], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.025475884047447415], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0037637174775906586], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.006777009836747321], ["'marginal heating grid' (megajoule, GLO, None)", -0.04145738401762264], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020218838604248782], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001446017211208925], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.014885247565680451], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.04407365126233039], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01438050035483897], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004177932428706111], ["'erbe - CONSQ' (unit, GLO, None)", 0.00333841620261963]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.002499280198950413], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0002550924903259128], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.014597311807365508], ["'marginal heating grid' (megajoule, GLO, None)", -0.00821046240357877], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.035220848097686455], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.0250438448823e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6426218527467251], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381564040607875], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0254256114577045]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.008074923984241441], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.015926459230569345], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001043434942648177], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.003315489371398535], ["'marginal heating grid' (megajoule, GLO, None)", -0.001864843417237762], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584520941855], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450132892786], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0003608699429942872], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.02574914042356426], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.00987611053988893], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009604043947], ["'erbe - CONSQ' (unit, GLO, None)", 0.002499280198950413]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003047335103848585], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00043158746572094606], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.018021839262096512], ["'marginal heating grid' (megajoule, GLO, None)", -0.010524823250965955], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04844171323119772], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605169201912246e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.8664968188127218], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909548947781], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272059820508]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.009618214300643038], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.019365959443037803], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001765373186669861], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004093302747454127], ["'marginal heating grid' (megajoule, GLO, None)", -0.0023905045041799034], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054037401155], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265237749], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00048401224619183333], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.03139967699617304], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714295176581], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187246866317], ["'erbe - CONSQ' (unit, GLO, None)", 0.003047335103848585]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1585704074220271], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459849970725], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.9147844050807719], ["'marginal heating grid' (megajoule, GLO, None)", -0.8259193766662216], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.9425449762549886], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836979181505307], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 141.557446557899], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.22765496364363388], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646436937161]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.6834654070651441], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.0702689455649004], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272284895272], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.20777510353899972], ["'marginal heating grid' (megajoule, GLO, None)", -0.1875911778213336], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.052109598911132926], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922924423924], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276508980430242], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.316325695671528], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110619178591], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113295140377], ["'erbe - CONSQ' (unit, GLO, None)", 0.1585704074220271]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0007670947349959657], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109106050447], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.007355314295178012], ["'marginal heating grid' (megajoule, GLO, None)", -0.05566481339719285], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0035731900810738945], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.000381739610641869], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.2746579800945439], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.039286400398038435], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828442511002]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.004215001265603991], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.006206328613574034], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924487855347], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.001670613513691849], ["'marginal heating grid' (megajoule, GLO, None)", -0.01264315646707992], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120142984584], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341649364624], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392661048522], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.01101782764793141], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919306647236], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001119529097570097], ["'erbe - CONSQ' (unit, GLO, None)", 0.0007670947349959657]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.458626811733354e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220203938844187e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2025208134070448e-05], ["'marginal heating grid' (megajoule, GLO, None)", -3.1967299324177194e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.772997580084025e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424781808986657e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001292046244655325], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.099117826084637e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860492232903e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.8042420144734026e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.4340508869634784e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.77144891871993e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.731287122143165e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.2607369452878195e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356767922098e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114505383465e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.6980542016736186e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.3437354839343e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746601030049e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407241808243e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.458626811733354e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286843429176332e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977544928760094e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2847272444424528e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.815870871111176e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.259935403659162e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264418789253e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 3.718998408651533e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.7271593616226765e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.09709891677213e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.621642090200363e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.861473907226338e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860216831548e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.9180026982405234e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.395691253021716e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.659925275036021e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062347864709e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581878121097e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.486373081821526e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082115670952e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295539434458e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.286843429176332e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128788387818], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00012238157024197283], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004482173560318248], ["'marginal heating grid' (megajoule, GLO, None)", -0.0031168214323506675], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007893174909178312], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748748567150795e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1688539249124067], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0020370235890242753], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179591631797]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0011486514629619558], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.003257619727921056], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917914850315e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010180366766229059], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007079240662853797], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005316997830961673], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467592604296], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00041689140963112716], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.004946216273907578], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242753002888], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955002772293], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128788387818]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01972150942869753], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.007777795377109156], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14533518490964883], ["'marginal heating grid' (megajoule, GLO, None)", -0.12382704881977322], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5678474458008754], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338108563840163], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 15.7831231011708], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.05012957062552852], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613386188806]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.046893793373390356], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.13370651501166217], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435081465617], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03300999986963669], ["'marginal heating grid' (megajoule, GLO, None)", -0.02812485406021477], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.01267155714906345], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292780765348], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.008686484354677317], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.2308595388619706], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958646530203], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819492235541], ["'erbe - CONSQ' (unit, GLO, None)", 0.01972150942869753]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.608534224939427e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786129532216e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467280868400334e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.012630398831499088], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.00022132275406650003], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538420902584e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05799746421320202], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004942292406], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464177895395]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00034735834276744304], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00055092642087919], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.63526167918883e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.696044496352863e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0028687441657052133], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694666890978e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186051479672e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547206755146], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0009889285294365376], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868889867786e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991491403689], ["'erbe - CONSQ' (unit, GLO, None)", 1.608534224939427e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01315162208643908], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0003808731937563079], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14706209252097713], ["'marginal heating grid' (megajoule, GLO, None)", -0.060467075858179446], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0008101242933667855], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518013434972285], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.147118550229989], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019062677632980963], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500120914784165]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.058491356603735216], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.08821374818087478], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00015579306100920167], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.033402232624975735], ["'marginal heating grid' (megajoule, GLO, None)", -0.013733894978264792], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0001920445222263361], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.659734352215731e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409592714117465], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.1471783164464471], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643998999115244], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784029847262784], ["'erbe - CONSQ' (unit, GLO, None)", 0.01315162208643908]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.294981797525352e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534299428863e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003876309496346234], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001965250931212696], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -2.8050936355143335e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978509349757723e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04774249846773665], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701024518444769e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829521076568]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 9.039317593066037e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.447752413409519e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6286140011681424e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.804266912283369e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.4636770527016e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.8812495267132805e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268140134791], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809678779727028e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -7.215935507971719e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944303193652], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446808906155006e-07], ["'erbe - CONSQ' (unit, GLO, None)", 2.294981797525352e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286921467521265e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500200706352e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.411992559593037e-07], ["'marginal heating grid' (megajoule, GLO, None)", -9.790687110387297e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 8.636213856438145e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633786087928e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.185283744412858e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361452394e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006716844612e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.965228744253022e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.030513951811181e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850707081692e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.2070605777307325e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.2237600649729584e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0585036458757306e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481039375305e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517339935045e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.267861639407232e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286103232592e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256838439613e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.286921467521265e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.293174918539583e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.04659234612133e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00011081839551076198], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018580173749905193], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.558164332699703e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407591313848e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005885703590216259], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506530837214], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913459812324]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.559603644310636e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.737322261176616e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.8823508960009926e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.5170196904746476e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.2201173338960466e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051371010623e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857096501362e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291486161352e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0001921845398804787], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650677357275], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117929204681e-05], ["'erbe - CONSQ' (unit, GLO, None)", 1.293174918539583e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.492260947568567e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259177732187e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00036692975284562286], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004053846972517222], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.404060752339933e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454106383195e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.004935220385614837], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384171494338], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160834084612]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00013998322029030118], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00023422380748604053], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070168747017e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.334080354409548e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.207508017931874e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.9566018786087805e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320075520928e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987106125297e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0003893137314174362], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748256516673e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.25318659121615e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.492260947568567e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.572137873242877e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.659422167008896e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00037498711194631227], ["'marginal heating grid' (megajoule, GLO, None)", -0.00042841400018129384], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.556356489957421e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350436880259184e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005075476231526235], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416723339197], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382331395769]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001429763422782133], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00023968691002099478], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730487282603e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.517087258779416e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.730572881526726e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109845637479e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.080501554014964e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242082024186e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0003981760257649921], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771310731721e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518727300464e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.572137873242877e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.101371901718753e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310241806705e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00032641400805680633], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005364045992523356], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00043193501949621285], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701452750404e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01184196459971396], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.001278480580431707], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874625000783]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018270417201118755], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002514870194759307], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.5806843319859e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.413845704397913e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00012183364793872794], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597524169256e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847798685744e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728439691822], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0004498842042423925], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767031765374e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840180794699e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.101371901718753e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.432710015341549e-10], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.657523897284272e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5330403659495287e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.2046623136144989e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.2626265524705663e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358492556626397e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.140410657305694e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.358884773940582e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.929307888880458e-10]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.350653122949214e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.753574662479196e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4960801994293262e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.481996621231257e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.736151114411297e-10], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.35233212244259e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.402905186066337e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.315359723920207e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.645776036956675e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.736566526220374e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.807603175161794e-11], ["'erbe - CONSQ' (unit, GLO, None)", 1.432710015341549e-10]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.754646738395292e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.519434761376565e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.465275949391742e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.26498734921003e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.653491271358202e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563065937798e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 8.780654155787251e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.479170256440286e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.423183316521192e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.790489491012733e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.269477555540423e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.2151234678410725e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.3280832118163814e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.415770106790771e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6212734729745108e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013618798778908e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.0299201855893865e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.320837237285736e-07], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.294725184235825e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.959897430035977e-08], ["'erbe - CONSQ' (unit, GLO, None)", 1.754646738395292e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.000237885813940567], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467096962316], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.002443599153287942], ["'marginal heating grid' (megajoule, GLO, None)", -0.01899556433614688], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.001288015655968484], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633562573265], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05547848335611903], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774338869814], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0261508159599791]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0008073396607017044], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.001768317001598009], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357970506288], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005550150005425426], ["'marginal heating grid' (megajoule, GLO, None)", -0.004314465052971857], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042388899288], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.00017313332933227], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.003650527032021812], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002680417068394435], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530633186681], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359675084524], ["'erbe - CONSQ' (unit, GLO, None)", 0.000237885813940567]]</t>
   </si>
 </sst>
 </file>

--- a/results/diathermy_CONSQ/data_diathermy_CONSQ_recipe.xlsx
+++ b/results/diathermy_CONSQ/data_diathermy_CONSQ_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -79,130 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.708647782999255e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.1432094518323657e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003142565582397843], ["'marginal heating grid' (megajoule, GLO, None)", -0.00030378203108526587], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.762200026960708e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.733722384697783e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.017566541172881], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00017432404802940872], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001022410061026684]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018692901936546739], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00026395615739731044], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 4.676204647512451e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.137713385080676e-05], ["'marginal heating grid' (megajoule, GLO, None)", -6.899805310569929e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 7.846796491700468e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.228342432526147e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.585036214837418e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0005153637872317309], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.000317260607559527], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.22376693367179e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.708647782999255e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.00333841620261963], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0092013025920437], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.02983756381847636], ["'marginal heating grid' (megajoule, GLO, None)", -0.18252700987174628], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.4228759539902583], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0017575516298531568], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.9646565550202538], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0671926348852812], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.1671249421909153]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.016580249091741505], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.025475884047447415], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0037637174775906586], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.006777009836747321], ["'marginal heating grid' (megajoule, GLO, None)", -0.04145738401762264], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.020218838604248782], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001446017211208925], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.014885247565680451], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.04407365126233039], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01438050035483897], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.004177932428706111], ["'erbe - CONSQ' (unit, GLO, None)", 0.00333841620261963]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.002499280198950413], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0002550924903259128], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.014597311807365508], ["'marginal heating grid' (megajoule, GLO, None)", -0.00821046240357877], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.035220848097686455], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.0250438448823e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.6426218527467251], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0018381564040607875], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0254256114577045]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.008074923984241441], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.015926459230569345], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001043434942648177], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.003315489371398535], ["'marginal heating grid' (megajoule, GLO, None)", -0.001864843417237762], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0009086584520941855], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0007034450132892786], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0003608699429942872], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.02574914042356426], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.00987611053988893], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001113009604043947], ["'erbe - CONSQ' (unit, GLO, None)", 0.002499280198950413]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.003047335103848585], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00043158746572094606], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.018021839262096512], ["'marginal heating grid' (megajoule, GLO, None)", -0.010524823250965955], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.04844171323119772], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.605169201912246e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.8664968188127218], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.002454909548947781], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.03525272059820508]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.009618214300643038], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.019365959443037803], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0001765373186669861], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004093302747454127], ["'marginal heating grid' (megajoule, GLO, None)", -0.0023905045041799034], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0013092054037401155], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.001901529265237749], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00048401224619183333], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.03139967699617304], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.01374714295176581], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001497187246866317], ["'erbe - CONSQ' (unit, GLO, None)", 0.003047335103848585]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.1585704074220271], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.17727459849970725], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.9147844050807719], ["'marginal heating grid' (megajoule, GLO, None)", -0.8259193766662216], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.9425449762549886], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010836979181505307], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 141.557446557899], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.22765496364363388], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 7.355646436937161]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.6834654070651441], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.0702689455649004], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.07251272284895272], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.20777510353899972], ["'marginal heating grid' (megajoule, GLO, None)", -0.1875911778213336], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.052109598911132926], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.1757922924423924], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.04276508980430242], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.316325695671528], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 3.036110619178591], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.2282113295140377], ["'erbe - CONSQ' (unit, GLO, None)", 0.1585704074220271]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0007670947349959657], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0029295109106050447], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.007355314295178012], ["'marginal heating grid' (megajoule, GLO, None)", -0.05566481339719285], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0035731900810738945], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.000381739610641869], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.2746579800945439], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.039286400398038435], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.06922828442511002]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.004215001265603991], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.006206328613574034], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0011982924487855347], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.001670613513691849], ["'marginal heating grid' (megajoule, GLO, None)", -0.01264315646707992], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005287120142984584], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003603341649364624], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.009478392661048522], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.01101782764793141], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.003432919306647236], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.001119529097570097], ["'erbe - CONSQ' (unit, GLO, None)", 0.0007670947349959657]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.458626811733354e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 9.220203938844187e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2025208134070448e-05], ["'marginal heating grid' (megajoule, GLO, None)", -3.1967299324177194e-05], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.772997580084025e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.424781808986657e-07], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.001292046244655325], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 2.099117826084637e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.755860492232903e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.8042420144734026e-06], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.4340508869634784e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 3.77144891871993e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.731287122143165e-06], ["'marginal heating grid' (megajoule, GLO, None)", -7.2607369452878195e-06], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0597356767922098e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.586114505383465e-07], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.6980542016736186e-06], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.3437354839343e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.637746601030049e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.727407241808243e-06], ["'erbe - CONSQ' (unit, GLO, None)", 1.458626811733354e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286843429176332e-07], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 2.4977544928760094e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.2847272444424528e-06], ["'marginal heating grid' (megajoule, GLO, None)", -2.815870871111176e-06], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.259935403659162e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6299264418789253e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 3.718998408651533e-05], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.7271593616226765e-06], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.09709891677213e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 3.621642090200363e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 3.861473907226338e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.0216860216831548e-07], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.9180026982405234e-07], ["'marginal heating grid' (megajoule, GLO, None)", -6.395691253021716e-07], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 1.659925275036021e-07], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 4.031062347864709e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 5.248581878121097e-07], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 7.486373081821526e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 2.978082115670952e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 3.972295539434458e-07], ["'erbe - CONSQ' (unit, GLO, None)", 1.286843429176332e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128788387818], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00012238157024197283], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.004482173560318248], ["'marginal heating grid' (megajoule, GLO, None)", -0.0031168214323506675], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.007893174909178312], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5748748567150795e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.1688539249124067], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0020370235890242753], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.01405179591631797]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0011486514629619558], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.003257619727921056], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.005917914850315e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0010180366766229059], ["'marginal heating grid' (megajoule, GLO, None)", -0.0007079240662853797], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0005316997830961673], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0002633467592604296], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00041689140963112716], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.004946216273907578], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.004551242753002888], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0004958955002772293], ["'erbe - CONSQ' (unit, GLO, None)", 0.0005170128788387818]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01972150942869753], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.007777795377109156], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14533518490964883], ["'marginal heating grid' (megajoule, GLO, None)", -0.12382704881977322], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.5678474458008754], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0035338108563840163], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 15.7831231011708], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.05012957062552852], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.3317613386188806]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.046893793373390356], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.13370651501166217], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0031814435081465617], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.03300999986963669], ["'marginal heating grid' (megajoule, GLO, None)", -0.02812485406021477], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.01267155714906345], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.01045292780765348], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.008686484354677317], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.2308595388619706], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.1109958646530203], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.02541819492235541], ["'erbe - CONSQ' (unit, GLO, None)", 0.01972150942869753]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.608534224939427e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.997786129532216e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.467280868400334e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.012630398831499088], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -0.00022132275406650003], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.574538420902584e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05799746421320202], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.0027176004942292406], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.002150464177895395]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00034735834276744304], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00055092642087919], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.63526167918883e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.696044496352863e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.0028687441657052133], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", -5.742694666890978e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -1.847186051479672e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006141547206755146], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0009889285294365376], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.684868889867786e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0001296991491403689], ["'erbe - CONSQ' (unit, GLO, None)", 1.608534224939427e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.01315162208643908], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0003808731937563079], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.14706209252097713], ["'marginal heating grid' (megajoule, GLO, None)", -0.060467075858179446], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.0008101242933667855], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0029518013434972285], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.147118550229989], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.019062677632980963], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001500120914784165]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.058491356603735216], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.08821374818087478], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.00015579306100920167], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.033402232624975735], ["'marginal heating grid' (megajoule, GLO, None)", -0.013733894978264792], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.0001920445222263361], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 6.659734352215731e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.0006409592714117465], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.1471783164464471], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0005643998999115244], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002784029847262784], ["'erbe - CONSQ' (unit, GLO, None)", 0.01315162208643908]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 2.294981797525352e-06], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.981534299428863e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0003876309496346234], ["'marginal heating grid' (megajoule, GLO, None)", -0.0001965250931212696], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", -2.8050936355143335e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.978509349757723e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", -0.04774249846773665], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 9.701024518444769e-05], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.006047829521076568]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 9.039317593066037e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.447752413409519e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6286140011681424e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.804266912283369e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.4636770527016e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.8812495267132805e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.0003001268140134791], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.7809678779727028e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", -7.215935507971719e-05], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.002545944303193652], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", -6.446808906155006e-07], ["'erbe - CONSQ' (unit, GLO, None)", 2.294981797525352e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.286921467521265e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 4.101500200706352e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.411992559593037e-07], ["'marginal heating grid' (megajoule, GLO, None)", -9.790687110387297e-08], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 8.636213856438145e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.422633786087928e-10], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 7.185283744412858e-07], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.900680361452394e-08], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 6.892006716844612e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", -3.965228744253022e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 6.030513951811181e-08], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.6776850707081692e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.2070605777307325e-08], ["'marginal heating grid' (megajoule, GLO, None)", -2.2237600649729584e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.0585036458757306e-09], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 2.762481039375305e-09], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 2.4253517339935045e-09], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.267861639407232e-08], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 4.247286103232592e-09], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.518256838439613e-09], ["'erbe - CONSQ' (unit, GLO, None)", 1.286921467521265e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.293174918539583e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 7.04659234612133e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00011081839551076198], ["'marginal heating grid' (megajoule, GLO, None)", -0.00018580173749905193], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 2.558164332699703e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.148407591313848e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005885703590216259], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00010237506530837214], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0004143913459812324]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.559603644310636e-05], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.737322261176616e-05], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 2.8823508960009926e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -2.5170196904746476e-05], ["'marginal heating grid' (megajoule, GLO, None)", -4.2201173338960466e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 4.310051371010623e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 8.802857096501362e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 1.9999291486161352e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0001921845398804787], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.0001205650677357275], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.308117929204681e-05], ["'erbe - CONSQ' (unit, GLO, None)", 1.293174918539583e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.492260947568567e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4617259177732187e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00036692975284562286], ["'marginal heating grid' (megajoule, GLO, None)", -0.0004053846972517222], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.404060752339933e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.190454106383195e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.004935220385614837], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00016660384171494338], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003686160834084612]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00013998322029030118], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00023422380748604053], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.979070168747017e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.334080354409548e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.207508017931874e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 5.9566018786087805e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.053320075520928e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.442987106125297e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0003893137314174362], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.354748256516673e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.25318659121615e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.492260947568567e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.572137873242877e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.659422167008896e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00037498711194631227], ["'marginal heating grid' (megajoule, GLO, None)", -0.00042841400018129384], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 9.556356489957421e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.350436880259184e-06], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.005075476231526235], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.00018211416723339197], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0003943382331395769]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0001429763422782133], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.00023968691002099478], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.787730487282603e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -8.517087258779416e-05], ["'marginal heating grid' (megajoule, GLO, None)", -9.730572881526726e-05], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.190109845637479e-06], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.080501554014964e-05], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.805242082024186e-05], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0003981760257649921], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 5.566771310731721e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.324518727300464e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.572137873242877e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 3.101371901718753e-05], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.3643310241806705e-05], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.00032641400805680633], ["'marginal heating grid' (megajoule, GLO, None)", -0.0005364045992523356], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.00043193501949621285], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.792701452750404e-05], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.01184196459971396], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.001278480580431707], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.001892874625000783]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.00018270417201118755], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.0002514870194759307], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 5.5806843319859e-06], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -7.413845704397913e-05], ["'marginal heating grid' (megajoule, GLO, None)", -0.00012183364793872794], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 3.544597524169256e-05], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", -2.767847798685744e-06], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.00023172728439691822], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.0004498842042423925], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", -3.593767031765374e-05], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.327840180794699e-05], ["'erbe - CONSQ' (unit, GLO, None)", 3.101371901718753e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.432710015341549e-10], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 3.657523897284272e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.5330403659495287e-09], ["'marginal heating grid' (megajoule, GLO, None)", -1.2046623136144989e-09], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 1.2626265524705663e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.358492556626397e-11], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 1.140410657305694e-08], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 4.358884773940582e-10], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 8.929307888880458e-10]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 6.350653122949214e-10], ["'dishwasher - CONSQ' (unit, GLO, None)", 9.753574662479196e-10], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 1.4960801994293262e-11], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.481996621231257e-10], ["'marginal heating grid' (megajoule, GLO, None)", -2.736151114411297e-10], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 6.35233212244259e-11], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.402905186066337e-11], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 6.315359723920207e-11], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 1.645776036956675e-09], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.736566526220374e-10], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 2.807603175161794e-11], ["'erbe - CONSQ' (unit, GLO, None)", 1.432710015341549e-10]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 1.754646738395292e-08], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 1.519434761376565e-08], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -1.465275949391742e-07], ["'marginal heating grid' (megajoule, GLO, None)", -3.26498734921003e-07], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 5.653491271358202e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.388563065937798e-09], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 8.780654155787251e-06], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 1.479170256440286e-07], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 5.423183316521192e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 7.790489491012733e-08], ["'dishwasher - CONSQ' (unit, GLO, None)", 1.269477555540423e-07], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 6.2151234678410725e-09], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -3.3280832118163814e-08], ["'marginal heating grid' (megajoule, GLO, None)", -7.415770106790771e-08], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 2.6212734729745108e-08], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 1.013618798778908e-08], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 3.0299201855893865e-08], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 2.320837237285736e-07], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 1.294725184235825e-07], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 1.959897430035977e-08], ["'erbe - CONSQ' (unit, GLO, None)", 1.754646738395292e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - CONSQ' (unit, GLO, None)", 0.000237885813940567], ["'sc1 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0012339467096962316], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.002443599153287942], ["'marginal heating grid' (megajoule, GLO, None)", -0.01899556433614688], ["'sc1 Waste - CONSQ' (kilogram, GLO, None)", 0.001288015655968484], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012689633562573265], ["'diathermy SU manufacturing - CONSQ' (unit, GLO, None)", 0.05547848335611903], ["'diathermy packaging - CONSQ' (kilogram, GLO, None)", 0.014972774338869814], ["'diathermy SU raw materials - CONSQ' (unit, GLO, None)", 0.0261508159599791]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - CONSQ' (unit, GLO, None)", 0.0008073396607017044], ["'dishwasher - CONSQ' (unit, GLO, None)", 0.001768317001598009], ["'sc3 Transport - CONSQ' (ton kilometer, GLO, None)", 0.0005047357970506288], ["'marginal electricity mix' (kilowatt hour, GLO, None)", -0.0005550150005425426], ["'marginal heating grid' (megajoule, GLO, None)", -0.004314465052971857], ["'sc3 Waste - CONSQ' (kilogram, GLO, None)", 0.00017642042388899288], ["'bipolar burner raw materials - CONSQ' (unit, GLO, None)", 0.00017313332933227], ["'bipolar burner packaging - CONSQ' (kilogram, GLO, None)", 0.003650527032021812], ["'bipolar burner manufacturing - CONSQ' (unit, GLO, None)", 0.002680417068394435], ["'scalpel raw materials - CONSQ' (unit, GLO, None)", 0.001277530633186681], ["'scalpel manufacturing - CONSQ' (unit, GLO, None)", 0.0002862359675084524], ["'erbe - CONSQ' (unit, GLO, None)", 0.000237885813940567]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188410693638203], ["'autoclave' (unit, GLO, None)", 0.0007704105979363906], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.761349831356749e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.107907415260462e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.094538948039296e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.373648417709167e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003809183370818279], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.1027808799119e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.908693266102025e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00013271418198131565], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.670308535234028e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007188410693638203], ["'autoclave' (unit, GLO, None)", 0.0007704105979363906], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.1687461497787774e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.4059162301783082e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00046621255944258224], ["'mixed heating grid' (megajoule, GLO, None)", -0.00036189877098857657], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.670308535234028e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056820162108498], ["'autoclave' (unit, GLO, None)", 0.0010272141305818542], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.987747653281262e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.362399446061394e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019763358498109463], ["'mixed heating grid' (megajoule, GLO, None)", -0.00015462947487693727], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010721211474157407], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7396719153132905e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6836366234887803e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0003738427661445512], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001328673219359301]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002056820162108498], ["'autoclave' (unit, GLO, None)", 0.0010272141305818542], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.2922426754331764e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.235153430660928e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013276922888473537], ["'mixed heating grid' (megajoule, GLO, None)", -0.0010330564917310277], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001328673219359301]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 7.659785493073219e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0007504179101982875], ["'autoclave' (unit, GLO, None)", 0.0015408211958727817], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.9134967278876856e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138280866187], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.292143347413285e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.73465931747883e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.80910743175002e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.4037285662587214e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 7.659785493073219e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0007504179101982875], ["'autoclave' (unit, GLO, None)", 0.0015408211958727817], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -4.9134967278876856e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00020867138280866187], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.292143347413285e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.73465931747883e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.796795159247528e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.107907415260462e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.081033384033681e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.8253169465143545e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.494774150834181e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00037520895509914374], ["'autoclave' (unit, GLO, None)", 0.001155615896904586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.9338183897030825e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651544885202], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.58428669482657e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.461688335869131e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.02019951964996e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.0405760901414e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 4.494774150834181e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00037520895509914374], ["'autoclave' (unit, GLO, None)", 0.001155615896904586], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.9338183897030825e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012479651544885202], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.58428669482657e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00014616883358691308], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.796795159247528e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.107907415260462e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.081033384033681e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.8253169465143545e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.247667921983642], ["'autoclave' (unit, GLO, None)", 0.22259094376329175], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.02729629042036906], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.03292265364793488], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02927015333198261], ["'mixed heating grid' (megajoule, GLO, None)", -0.015725579026400885], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14376148951012568], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0027600300405111514], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0026147105942181475], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04945452428667455], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015482286667422249]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.247667921983642], ["'autoclave' (unit, GLO, None)", 0.22259094376329175], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.1811249177426358], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.021958503855090513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.19234672189588572], ["'mixed heating grid' (megajoule, GLO, None)", -0.10590696079004677], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.015482286667422249]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.708735854342761], ["'autoclave' (unit, GLO, None)", 0.29678792501772233], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.07729697193805445], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.009937204633184014], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08153828428195156], ["'mixed heating grid' (megajoule, GLO, None)", -0.04525115597392908], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40462670888611535], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.008306886529693757], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007876500964701159], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.13930851911739314], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.04404612567725507]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.708735854342761], ["'autoclave' (unit, GLO, None)", 0.29678792501772233], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.5102110358947488], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.06614734998988751], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5477700123556746], ["'mixed heating grid' (megajoule, GLO, None)", -0.3023162335279517], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.04404612567725507]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02276016469242935], ["'mechanical disinfection' (unit, GLO, None)", 0.22422019151529288], ["'autoclave' (unit, GLO, None)", 0.44518188752658366], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0038941585734921565], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04478033880776026], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000374931589900305], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0028955795634324523], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007463889099655565], ["'mixed heating grid' (megajoule, GLO, None)", -0.00041079063579169665]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.02276016469242935], ["'mechanical disinfection' (unit, GLO, None)", 0.22422019151529288], ["'autoclave' (unit, GLO, None)", 0.44518188752658366], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0038941585734921565], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04478033880776026], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.000374931589900305], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0028955795634324523], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0015135277295882084], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364793488], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025088702855985093], ["'mixed heating grid' (megajoule, GLO, None)", -0.014120928105339572]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01333332793161536], ["'mechanical disinfection' (unit, GLO, None)", 0.11211009575764644], ["'autoclave' (unit, GLO, None)", 0.33388641564493765], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.002325177906497298], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009300885828], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00074986317980061], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004845563770278672], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003721490923637789], ["'mixed heating grid' (megajoule, GLO, None)", -0.00020603717826427284]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.01333332793161536], ["'mechanical disinfection' (unit, GLO, None)", 0.11211009575764644], ["'autoclave' (unit, GLO, None)", 0.33388641564493765], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.002325177906497298], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.026781009300885828], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00074986317980061], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.04845563770278672], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0015135277295882084], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.03292265364793488], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025088702855985093], ["'mixed heating grid' (megajoule, GLO, None)", -0.014120928105339572]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819008541924573], ["'autoclave' (unit, GLO, None)", 0.046071944628177354], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0014331293356297816], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0017285907691337351], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018149143713771857], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005918918391358223], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00330865830208628], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003804253170918869], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0004312631601403641], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012188485069093053], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005008065702481513]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.007819008541924573], ["'autoclave' (unit, GLO, None)", 0.046071944628177354], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00950954979716958], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.001152922467119473], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011926580154764362], ["'mixed heating grid' (megajoule, GLO, None)", -0.003986210345200436], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005008065702481513]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0223690146190988], ["'autoclave' (unit, GLO, None)", 0.06142925950423647], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0040583008289329335], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0005217489569220173], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0050558328916935884], ["'mixed heating grid' (megajoule, GLO, None)", -0.00170319896567655], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009312448863487874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011449694009561643], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0012991283641092123], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.034333760758008605], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014247629957376204]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0223690146190988], ["'autoclave' (unit, GLO, None)", 0.06142925950423647], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.026787464217379098], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0034730401691769543], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0339648260929159], ["'mixed heating grid' (megajoule, GLO, None)", -0.011378818621753972], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014247629957376204]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001909640057178968], ["'mechanical disinfection' (unit, GLO, None)", 0.04698624801606255], ["'autoclave' (unit, GLO, None)", 0.09214388925635474], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.003880586173385865], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00477476070237566], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8978950353104707e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.366350728375236e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.628031647011823e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.54616643692623e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001909640057178968], ["'mechanical disinfection' (unit, GLO, None)", 0.04698624801606255], ["'autoclave' (unit, GLO, None)", 0.09214388925635474], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.003880586173385865], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00477476070237566], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.8978950353104707e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.366350728375236e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.667831085943178e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907691337351], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015556408897518732], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005314947126933915]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00113118969260157], ["'mechanical disinfection' (unit, GLO, None)", 0.023493124008031274], ["'autoclave' (unit, GLO, None)", 0.06910791694226603], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0023170739106610446], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559251768475], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.7957900706209415e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00015673977784032333], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3075339864652783e-05], ["'mixed heating grid' (megajoule, GLO, None)", -7.754991035208122e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00113118969260157], ["'mechanical disinfection' (unit, GLO, None)", 0.023493124008031274], ["'autoclave' (unit, GLO, None)", 0.06910791694226603], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0023170739106610446], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002855559251768475], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.7957900706209415e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001567397778403233], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.667831085943178e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017285907691337351], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015556408897518732], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005314947126933915]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0103208308765014], ["'autoclave' (unit, GLO, None)", 0.058157494298357176], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0020751526275777036], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0025030016010782192], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002366609872447814], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007888311957309329], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004412681858441853], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.000498732994168679], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005588596627359037], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015853839954890748], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006592750512697318]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0103208308765014], ["'autoclave' (unit, GLO, None)", 0.058157494298357176], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.013769704351216537], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.001669433177966849], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.015552007733228491], ["'mixed heating grid' (megajoule, GLO, None)", -0.005312536624310364], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0006592750512697318]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952715145445606], ["'autoclave' (unit, GLO, None)", 0.07754332573114289], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.005876366786505087], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0007554931438116827], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006592698930390339], ["'mixed heating grid' (megajoule, GLO, None)", -0.0022699020122053377], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012419799932700579], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015010410504105874], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016834974709651017], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.044658704098283805], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001875595794593319]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02952715145445606], ["'autoclave' (unit, GLO, None)", 0.07754332573114289], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.03878789958089166], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.005028966519597523], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04428941332723766], ["'mixed heating grid' (megajoule, GLO, None)", -0.015164877273031405], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001875595794593319]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002490734862463381], ["'mechanical disinfection' (unit, GLO, None)", 0.05926074538177343], ["'autoclave' (unit, GLO, None)", 0.11631498859671438], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.004962058847278763], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907043130918], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5273850024228763e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012330112509506693], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.034855174741925e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.060620266399172e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002490734862463381], ["'mechanical disinfection' (unit, GLO, None)", 0.05926074538177343], ["'autoclave' (unit, GLO, None)", 0.11631498859671438], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.004962058847278763], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005988907043130918], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.5273850024228763e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00012330112509506693], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.869017421539612e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016010782192], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002028522747812412], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007083382165747153]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001475447275778847], ["'mechanical disinfection' (unit, GLO, None)", 0.029630372690886714], ["'autoclave' (unit, GLO, None)", 0.08723624144753576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0029628145296829596], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682932609589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.0547700048457526e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00020633640053979897], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0089754092550772e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.0335298523658347e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001475447275778847], ["'mechanical disinfection' (unit, GLO, None)", 0.029630372690886714], ["'autoclave' (unit, GLO, None)", 0.08723624144753576], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0029628145296829596], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.003581682932609589], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.0547700048457526e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0020633640053979896], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.869017421539612e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025030016010782192], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002028522747812412], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007083382165747153]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751939198277971], ["'autoclave' (unit, GLO, None)", 2.3654223791665956], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0798323440765972], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.09628292048201052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08158145601007402], ["'mixed heating grid' (megajoule, GLO, None)", -0.07107253688655435], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.30441615711394193], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.025535823940551875], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.019192897079504955], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.22262311662204798], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.03672201543667759]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.6751939198277971], ["'autoclave' (unit, GLO, None)", 2.3654223791665956], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.5297286382652711], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0642180579728639], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5361067109233435], ["'mixed heating grid' (megajoule, GLO, None)", -0.47865177903189665], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.03672201543667759]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.930445723122375], ["'autoclave' (unit, GLO, None)", 3.153896505555461], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.22606729210475657], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.02906154205374446], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.22726262745663475], ["'mixed heating grid' (megajoule, GLO, None)", -0.2045148510409013], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8568004422081148], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.07685539244243768], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.057816292440324414], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6271073707663324], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.10447180973915554]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.930445723122375], ["'autoclave' (unit, GLO, None)", 3.153896505555461], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.492193347226116], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.19344917050972754], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5267386767599564], ["'mixed heating grid' (megajoule, GLO, None)", -1.366333260145596], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.10447180973915554]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1130597939334322], ["'mechanical disinfection' (unit, GLO, None)", 2.3912577434213396], ["'autoclave' (unit, GLO, None)", 4.730844758333193], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3403312145609671], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173094427518], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019999342846723826], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.006867946557935587], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002080327128256887], ["'mixed heating grid' (megajoule, GLO, None)", -0.0018565887186691751]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.1130597939334322], ["'mechanical disinfection' (unit, GLO, None)", 2.3912577434213396], ["'autoclave' (unit, GLO, None)", 4.730844758333193], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.3403312145609671], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09207173094427518], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00019999342846723826], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.006867946557935587], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0002950256020332004], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292048201052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06992696229434915], ["'mixed heating grid' (megajoule, GLO, None)", -0.0638202372042529]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.06671063857447705], ["'mechanical disinfection' (unit, GLO, None)", 1.1956288717106698], ["'autoclave' (unit, GLO, None)", 3.548133568749894], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2032096551936025], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055063761204503923], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0003999868569344765], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.011493061160403209], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010372499406995123], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009311952792075081]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.06671063857447705], ["'mechanical disinfection' (unit, GLO, None)", 1.1956288717106698], ["'autoclave' (unit, GLO, None)", 3.548133568749894], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.2032096551936025], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055063761204503923], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0003999868569344765], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.11493061160403206], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0002950256020332004], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09628292048201052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.06992696229434915], ["'mixed heating grid' (megajoule, GLO, None)", -0.0638202372042529]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.14975979866656], ["'autoclave' (unit, GLO, None)", 0.056996513796778794], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.662922347528497e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.4535557197334644e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007706722846715583], ["'mixed heating grid' (megajoule, GLO, None)", -0.004544608536222994], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10345246603305593], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007776605169280047], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007179650506733116], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.012748314491119527], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004210932723493822]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.14975979866656], ["'autoclave' (unit, GLO, None)", 0.056996513796778794], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0003094088660509564], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.637371567198375e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05064417870698811], ["'mixed heating grid' (megajoule, GLO, None)", -0.030606547284767104], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.004210932723493822]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511303468264], ["'autoclave' (unit, GLO, None)", 0.07599535172903839], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00013204350199076028], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.646073240176431e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.021468727930136267], ["'mixed heating grid' (megajoule, GLO, None)", -0.013077342930764126], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2911741593645614], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002340531652890111], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0021627833025784763], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03591074504540712], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.011979837083610587]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284511303468264], ["'autoclave' (unit, GLO, None)", 0.07599535172903839], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0008715742705660744], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00010957144060748887], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.14422581327424877], ["'mixed heating grid' (megajoule, GLO, None)", -0.08736778043106246], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.011979837083610587]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006825276404407523], ["'mechanical disinfection' (unit, GLO, None)", 0.057753130445652244], ["'autoclave' (unit, GLO, None)", 0.11399302759355763], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0010836467842000393], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344510923225], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2487473883345566e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007875510251850788], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00019652143259124734], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001187163046197027]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006825276404407523], ["'mechanical disinfection' (unit, GLO, None)", 0.057753130445652244], ["'autoclave' (unit, GLO, None)", 0.11399302759355763], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0010836467842000393], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009693344510923225], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.2487473883345566e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007875510251850788], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.3834559277286985e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4535557197334644e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006605762440041928], ["'mixed heating grid' (megajoule, GLO, None)", -0.004080872971302281]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003950659365313896], ["'mechanical disinfection' (unit, GLO, None)", 0.028876565222826122], ["'autoclave' (unit, GLO, None)", 0.0854947706951682], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006470387667878701], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057971323222489385], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.497494776669113e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0013179153365618322], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.798547619395526e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.954364653581964e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003950659365313896], ["'mechanical disinfection' (unit, GLO, None)", 0.028876565222826122], ["'autoclave' (unit, GLO, None)", 0.0854947706951682], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0006470387667878701], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0057971323222489385], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.497494776669113e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.013179153365618321], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.3834559277286985e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4535557197334644e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006605762440041928], ["'mixed heating grid' (megajoule, GLO, None)", -0.004080872971302281]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541603635558394e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237243859519], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.5831949851971936e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.894629137961211e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4325064344498752e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.089177502719715e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3667264665082418e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.041961124823207e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 7.032647655572418e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.769013879293526e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.943220034488435e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.541603635558394e-05], ["'autoclave' (unit, GLO, None)", 0.0002251237243859519], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.714082653728979e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9306379663282572e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00015985042283527752], ["'mixed heating grid' (megajoule, GLO, None)", -2.7539358691785836e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.943220034488435e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899820274297], ["'autoclave' (unit, GLO, None)", 0.00030016496584793587], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.315028789857474e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.736999875130627e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.776267924538938e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.1766816895581221e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.661316213682138e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.8184543191215475e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.1185004629578535e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.800039096601482e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.690808484495286e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0001588899820274297], ["'autoclave' (unit, GLO, None)", 0.00030016496584793587], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.828401841490082e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.815814506545919e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00045522620416133376], ["'mixed heating grid' (megajoule, GLO, None)", -7.861235117473412e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.690808484495286e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.372829765786034e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00021381658726661736], ["'autoclave' (unit, GLO, None)", 0.00045024744877190394], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.4673830099396815e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218569739563e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.273392796115313e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1115326077160335e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.202891407847181e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.0681933068329054e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.372829765786034e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00021381658726661736], ["'autoclave' (unit, GLO, None)", 0.00045024744877190394], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -5.4673830099396815e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4674218569739563e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.273392796115313e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1115326077160335e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9523613844654627e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894629137961211e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.08500551524275e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.671914492238112e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 8.123884429376959e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690829363330868], ["'autoclave' (unit, GLO, None)", 0.00033768558657892785], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.264540449792253e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958254503494e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.6546785592230627e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8600774095281846e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0927581809434126e-07], ["'mixed heating grid' (megajoule, GLO, None)", -5.357657054583791e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 8.123884429376959e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690829363330868], ["'autoclave' (unit, GLO, None)", 0.00033768558657892785], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.264540449792253e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.775958254503494e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.6546785592230627e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8600774095281844e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9523613844654627e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.894629137961211e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.08500551524275e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.671914492238112e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917951217020767e-06], ["'autoclave' (unit, GLO, None)", 0.0001541311209158969], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.296612967384003e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.157880248532965e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.106630897897648e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.554738065716941e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.396016779156701e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.513982990248405e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 6.293322662196472e-07], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.211114256379697e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.0612702980531946e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.917951217020767e-06], ["'autoclave' (unit, GLO, None)", 0.0001541311209158969], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.8510235577968615e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.440164165764647e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.384357447189883e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.067476656503246e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.0612702980531946e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293561049089504e-05], ["'autoclave' (unit, GLO, None)", 0.00020550816122119587], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.2167044197358437e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.5568280750159133e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.8684717870005904e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.3106491168695688e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.743755835374821e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6595482786184517e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.895787707044054e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.411589454590696e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.864183537815892e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.293561049089504e-05], ["'autoclave' (unit, GLO, None)", 0.00020550816122119587], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.031052275484118e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.0363080499346049e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.942409251779884e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.75625154674563e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.864183537815892e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 2.898688439309856e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.54057859255045e-05], ["'autoclave' (unit, GLO, None)", 0.0003082622418317939], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.6860312260940295e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.371913468354377e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.390180585312317e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.85509729794126e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.371908789639002e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.189809127370956e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 2.898688439309856e-06], ["'mechanical disinfection' (unit, GLO, None)", 9.54057859255045e-05], ["'autoclave' (unit, GLO, None)", 0.0003082622418317939], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.6860312260940295e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.371913468354377e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.390180585312317e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.85509729794126e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.666060294868008e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880248532965e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8056836267694124e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.089968875337662e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.718841981009837e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.770289296275225e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668137384537], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0067187770072671e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767613245927e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.780361170624634e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.451254192324714e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.678430713041295e-08], ["'mixed heating grid' (megajoule, GLO, None)", -5.967636404469952e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.718841981009837e-06], ["'mechanical disinfection' (unit, GLO, None)", 4.770289296275225e-05], ["'autoclave' (unit, GLO, None)", 0.00023119668137384537], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0067187770072671e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.204767613245927e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.780361170624634e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.451254192324713e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.666060294868008e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.157880248532965e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8056836267694124e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.089968875337662e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957978155933637], ["'autoclave' (unit, GLO, None)", 0.02146810662834634], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.20305317456768e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00010716201114533861], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024249305807074826], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006463787018167722], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005243078103144964], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00048499856333517554], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005255136159295069], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.005454000689048411], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007167855908282903]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009957978155933637], ["'autoclave' (unit, GLO, None)", 0.02146810662834634], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0006106698835460796], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.147411202079006e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.015935258101792027], ["'mixed heating grid' (megajoule, GLO, None)", -0.004353162685704792], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0007167855908282903]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851045517361431], ["'autoclave' (unit, GLO, None)", 0.028624142171128457], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.000260609823541496], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.2345230886987524e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006755163760542272], ["'mixed heating grid' (megajoule, GLO, None)", -0.0018599876929829566], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014757007906202713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001459704413921402], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0015830465184121319], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015363382222671583], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0020392096397298513]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.02851045517361431], ["'autoclave' (unit, GLO, None)", 0.028624142171128457], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0017201968550593794], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00021530716000760694], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0453808437246686], ["'mixed heating grid' (megajoule, GLO, None)", -0.012426300757375499], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0020392096397298513]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001778496544495597], ["'mechanical disinfection' (unit, GLO, None)", 0.021196857939359694], ["'autoclave' (unit, GLO, None)", 0.042936213256692696], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0005548009862583898], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853825304244], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.790608054582768e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013405705195554418], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.183572980804079e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.6884994659703437e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001778496544495597], ["'mechanical disinfection' (unit, GLO, None)", 0.021196857939359694], ["'autoclave' (unit, GLO, None)", 0.042936213256692696], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0005548009862583898], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.009154853825304244], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.790608054582768e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00013405705195554418], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.2977040867345587e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201114533861], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002078511926320699], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005804216914273056]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001050012368860427], ["'mechanical disinfection' (unit, GLO, None)", 0.010598428969679847], ["'autoclave' (unit, GLO, None)", 0.032202159942519515], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00033126822429166734], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086432379451], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.581216109165536e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000224335743458601], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.08312602404237e-05], ["'mixed heating grid' (megajoule, GLO, None)", -8.468880134007505e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001050012368860427], ["'mechanical disinfection' (unit, GLO, None)", 0.010598428969679847], ["'autoclave' (unit, GLO, None)", 0.032202159942519515], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00033126822429166734], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005475086432379451], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.581216109165536e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00224335743458601], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.2977040867345587e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010716201114533861], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002078511926320699], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005804216914273056]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553442029466165], ["'autoclave' (unit, GLO, None)", 0.6714095951935757], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.017329742424131763], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.020902310785589497], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.043278167958669116], ["'mixed heating grid' (megajoule, GLO, None)", -0.01756836944842277], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0699889474006209], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.007169913201612688], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.007945384390533817], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.2284311776086274], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016660261240955817]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.1553442029466165], ["'autoclave' (unit, GLO, None)", 0.6714095951935757], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.11499174879564067], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.013941266001030794], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2843993894426827], ["'mixed heating grid' (megajoule, GLO, None)", -0.11831759016284724], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.016660261240955817]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448102353727749], ["'autoclave' (unit, GLO, None)", 0.8952127935914342], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.04907394350011145], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0063090460995036185], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1205606107420068], ["'mixed heating grid' (megajoule, GLO, None)", -0.05055387943321655], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19698875924015816], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.02157935041262071], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.02393451418881576], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6434681059397956], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.04739738878360531]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4448102353727749], ["'autoclave' (unit, GLO, None)", 0.8952127935914342], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.32392041914264985], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.04199638589031284], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.8099200003693791], ["'mixed heating grid' (megajoule, GLO, None)", -0.3377429391921276], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.04739738878360531]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03749089564845728], ["'mechanical disinfection' (unit, GLO, None)", 0.65308177396853], ["'autoclave' (unit, GLO, None)", 1.3428191903871518], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05671513568606739], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.051192243117130005], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.000371291623567502], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003115890630824332], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011035932829460621], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004589288345710439]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.03749089564845728], ["'mechanical disinfection' (unit, GLO, None)", 0.65308177396853], ["'autoclave' (unit, GLO, None)", 1.3428191903871518], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.05671513568606739], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.051192243117130005], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.000371291623567502], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.003115890630824332], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0008694939062137778], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310785589497], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03709557253600209], ["'mixed heating grid' (megajoule, GLO, None)", -0.015775678688379632]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02215486883508942], ["'mechanical disinfection' (unit, GLO, None)", 0.326540886984265], ["'autoclave' (unit, GLO, None)", 1.0071143927903636], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.03386425538983152], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666954611823], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.000742583247135004], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.005214239989653578], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005502509926173643], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002301814935895392]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.02215486883508942], ["'mechanical disinfection' (unit, GLO, None)", 0.326540886984265], ["'autoclave' (unit, GLO, None)", 1.0071143927903636], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.03386425538983152], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.030615666954611823], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.000742583247135004], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.05214239989653577], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0008694939062137778], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020902310785589497], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03709557253600209], ["'mixed heating grid' (megajoule, GLO, None)", -0.015775678688379632]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109665182160749], ["'autoclave' (unit, GLO, None)", 0.06018770652084171], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.03787524065049e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.668977154505161e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00886574645186015], ["'mixed heating grid' (megajoule, GLO, None)", -0.001058053704986531], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028513985072224127], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007152357961955628], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008165584827002024], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.014724712106307417], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009988147703137633]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.01109665182160749], ["'autoclave' (unit, GLO, None)", 0.06018770652084171], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.6793377765063994e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.1140792580965617e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05826061954079527], ["'mixed heating grid' (megajoule, GLO, None)", -0.007125667809092963], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0009988147703137633]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191441579159117], ["'autoclave' (unit, GLO, None)", 0.08025027536112228], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.1434356989879424e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.4092600769102733e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02469743654446756], ["'mixed heating grid' (megajoule, GLO, None)", -0.0030446035184306295], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008025459374632619], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002152651425442956], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002459784150087267], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0414780622712885], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0028415648054179532]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03191441579159117], ["'autoclave' (unit, GLO, None)", 0.08025027536112228], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.547430356356056e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.380788961803947e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.16591611217052565], ["'mixed heating grid' (megajoule, GLO, None)", -0.020340542655047186], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0028415648054179532]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006917810415986696], ["'mechanical disinfection' (unit, GLO, None)", 0.06230870032540045], ["'autoclave' (unit, GLO, None)", 0.12037541304168345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003865010792924259], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964947642965], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6506202065025387e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018680364849855513], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002260765345224338], ["'mixed heating grid' (megajoule, GLO, None)", -2.7638953926178766e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006917810415986696], ["'mechanical disinfection' (unit, GLO, None)", 0.06230870032540045], ["'autoclave' (unit, GLO, None)", 0.12037541304168345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003865010792924259], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0009072964947642965], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.6506202065025387e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00018680364849855513], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.654305003123308e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977154505161e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007599211244451557], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009500890412123951]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004116895788353339], ["'mechanical disinfection' (unit, GLO, None)", 0.031154350162700226], ["'autoclave' (unit, GLO, None)", 0.09028155978126257], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00023077739476905747], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112555614013], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.3012404130050774e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00031260373665832657], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00011272163345936475], ["'mixed heating grid' (megajoule, GLO, None)", -1.3862662828599038e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.004116895788353339], ["'mechanical disinfection' (unit, GLO, None)", 0.031154350162700226], ["'autoclave' (unit, GLO, None)", 0.09028155978126257], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00023077739476905747], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005426112555614013], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.3012404130050774e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0031260373665832654], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.654305003123308e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.668977154505161e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.007599211244451557], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009500890412123951]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202585808126328], ["'autoclave' (unit, GLO, None)", 0.04303643640424838], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.966614694979756e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.4069883503161686e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0064531408887532685], ["'mixed heating grid' (megajoule, GLO, None)", -0.010863943846055938], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001123608483350039], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001931998680487259], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001964611592290924], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016522496539516296], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0038832292636221725]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.004202585808126328], ["'autoclave' (unit, GLO, None)", 0.04303643640424838], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9685013396594644e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.272367459339316e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.042406354411807186], ["'mixed heating grid' (megajoule, GLO, None)", -0.07316533610609101], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0038832292636221725]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01225291810387747], ["'autoclave' (unit, GLO, None)", 0.05738191520566451], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.400787407279123e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.0283478598660728e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01797660676152696], ["'mixed heating grid' (megajoule, GLO, None)", -0.031261552699875246], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003162474208104414], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005814753310204372], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.000591815596577321], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.004654224377328534], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.011047541481001054]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.01225291810387747], ["'autoclave' (unit, GLO, None)", 0.05738191520566451], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.545074196223844e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.8452334744884485e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1207659223466683], ["'mixed heating grid' (megajoule, GLO, None)", -0.20885377761193252], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.011047541481001054]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001248097831411931], ["'mechanical disinfection' (unit, GLO, None)", 0.0442941935147069], ["'autoclave' (unit, GLO, None)", 0.08607287280849679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002647575916432511], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840388124651029], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.795202130083185e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000726262181898957], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001645550926632083], ["'mixed heating grid' (megajoule, GLO, None)", -0.000283792818835747]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001248097831411931], ["'mechanical disinfection' (unit, GLO, None)", 0.0442941935147069], ["'autoclave' (unit, GLO, None)", 0.08607287280849679], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0002647575916432511], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008840388124651029], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.795202130083185e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.000726262181898957], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.5968391649129892e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069883503161686e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005531263618931372], ["'mixed heating grid' (megajoule, GLO, None)", -0.0097553781474788]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000741979390963771], ["'mechanical disinfection' (unit, GLO, None)", 0.02214709675735345], ["'autoclave' (unit, GLO, None)", 0.06455465460637258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00015808511416479456], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287019323504787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.759040426016637e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0012153524499121295], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.204707701414868e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00014233983569730433]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000741979390963771], ["'mechanical disinfection' (unit, GLO, None)", 0.02214709675735345], ["'autoclave' (unit, GLO, None)", 0.06455465460637258], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00015808511416479456], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005287019323504787], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.759040426016637e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.012153524499121292], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.5968391649129892e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4069883503161686e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005531263618931372], ["'mixed heating grid' (megajoule, GLO, None)", -0.0097553781474788]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064264921852336], ["'autoclave' (unit, GLO, None)", 0.0035315385938907073], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.2432442870157625e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.813958524406366e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001985926160345487], ["'mixed heating grid' (megajoule, GLO, None)", -8.36396742509175e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011050233310601408], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.447244046959913e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00010296499496778721], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0008132576177240007], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005023078018243311]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002064264921852336], ["'autoclave' (unit, GLO, None)", 0.0035315385938907073], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.142713498860926e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.544722795636173e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013050371910841771], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005632876020980159], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005023078018243311]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902614870935912], ["'autoclave' (unit, GLO, None)", 0.00470871812518761], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.767946746696987e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.0566902335134813e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005532222875248142], ["'mixed heating grid' (megajoule, GLO, None)", -0.00024067742998733403], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003110165004639469], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002843345295686964], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00031016965471726814], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0022908665288000024], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014290339045571951]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005902614870935912], ["'autoclave' (unit, GLO, None)", 0.00470871812518761], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00011669615489749089], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.3690430429770588e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0037165189572179826], ["'mixed heating grid' (megajoule, GLO, None)", -0.0016079300641706998], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0014290339045571951]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002834215122960944], ["'mechanical disinfection' (unit, GLO, None)", 0.002882784888913161], ["'autoclave' (unit, GLO, None)", 0.007063077187781417], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00019945921991177784], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764560476737], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9998426457778108e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.394427559436067e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.0641117088809905e-06], ["'mixed heating grid' (megajoule, GLO, None)", -2.1848731232892737e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002834215122960944], ["'mechanical disinfection' (unit, GLO, None)", 0.002882784888913161], ["'autoclave' (unit, GLO, None)", 0.007063077187781417], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.00019945921991177784], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008372764560476737], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9998426457778108e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.394427559436067e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.196312886602442e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958524406366e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017022224231532743], ["'mixed heating grid' (megajoule, GLO, None)", -7.510501361306878e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001631808149278796], ["'mechanical disinfection' (unit, GLO, None)", 0.0014413924444565806], ["'autoclave' (unit, GLO, None)", 0.005297307890836061], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0001190958618231487], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355717670371], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.9996852915556217e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001572096253178049], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.52496326101069e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.0958504258997764e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001631808149278796], ["'mechanical disinfection' (unit, GLO, None)", 0.0014413924444565806], ["'autoclave' (unit, GLO, None)", 0.005297307890836061], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0001190958618231487], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005007355717670371], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.9996852915556217e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0015720962531780487], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.196312886602442e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.813958524406366e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017022224231532743], ["'mixed heating grid' (megajoule, GLO, None)", -7.510501361306878e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733841614345213e-08], ["'autoclave' (unit, GLO, None)", 2.6940935534169247e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9931668340716198e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.4033670102842e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.339820885445505e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.4974162283937952e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6525668492003123e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5101670841184733e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.617009225900557e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.5079874209793597e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.843444247320606e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.733841614345213e-08], ["'autoclave' (unit, GLO, None)", 2.6940935534169247e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.3225686469073363e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.602979648143682e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.194739439007046e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.0084639905509231e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.843444247320606e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.3579057482808e-07], ["'autoclave' (unit, GLO, None)", 3.592124737889233e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.644201408632717e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.254199508105521e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.303786752312478e-08], ["'mixed heating grid' (megajoule, GLO, None)", -4.308891595990308e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.65126431066313e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.545163068706085e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.87104567362066e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.064753298533409e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.231410246310514e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.3579057482808e-07], ["'autoclave' (unit, GLO, None)", 3.592124737889233e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.7255454842460185e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.8287832591948604e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.250236228476588e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.878706300299908e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.231410246310514e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.055853061768374e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.5831384686776277e-07], ["'autoclave' (unit, GLO, None)", 5.388187106833852e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.881598191693179e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374260989595e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.607245744105952e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4669226424577462e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.516543257886037e-10], ["'mixed heating grid' (megajoule, GLO, None)", -3.911617902742975e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.055853061768374e-08], ["'mechanical disinfection' (unit, GLO, None)", 2.5831384686776277e-07], ["'autoclave' (unit, GLO, None)", 5.388187106833852e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.881598191693179e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0402374260989595e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.607245744105952e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.4669226424577462e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.334751771926384e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670102842e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8627036160961466e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.3446186540678976e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 6.232933448748168e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.2915692343388139e-07], ["'autoclave' (unit, GLO, None)", 4.0411403301253874e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1234905979462572e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169585849131e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.214491488211904e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.454799481202557e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.2463436972092843e-10], ["'mixed heating grid' (megajoule, GLO, None)", -1.9619208543445235e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 6.232933448748168e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.2915692343388139e-07], ["'autoclave' (unit, GLO, None)", 4.0411403301253874e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.1234905979462572e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.221169585849131e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.214491488211904e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.4547994812025566e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.334751771926384e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4033670102842e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8627036160961466e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.3446186540678976e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099037459208717], ["'autoclave' (unit, GLO, None)", 0.0002683553595338856], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.943121604251979e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.947605073447793e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4145113416105487e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.3299503724569494e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014460957533919488], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.362615245955764e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.336731121686129e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.641471415166533e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.5635738754246095e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0003099037459208717], ["'autoclave' (unit, GLO, None)", 0.0002683553595338856], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.9435666719802845e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.633861365501418e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001586678881629789], ["'mixed heating grid' (megajoule, GLO, None)", -0.00015691502508383536], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.5635738754246095e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865846676285235], ["'autoclave' (unit, GLO, None)", 0.00035780714604518075], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.6829587346620088e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.097029421251673e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.726138737343672e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.704551071763875e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004070137054248862], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3130201225692104e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.3063880545381873e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00015891468775116994], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.29320542407191e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008865846676285235], ["'autoclave' (unit, GLO, None)", 0.00035780714604518075], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.1108638512620521e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.3958949642982261e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00045185855107283127], ["'mixed heating grid' (megajoule, GLO, None)", -0.00044792107160294823], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -7.29320542407191e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.11302903159179e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000260643378159186], ["'autoclave' (unit, GLO, None)", 0.0005367107190677713], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.708369533817151e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504173746161e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4501734503401692e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.794532153088432e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.157003921106899e-07], ["'mixed heating grid' (megajoule, GLO, None)", -6.086400972948766e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.11302903159179e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000260643378159186], ["'autoclave' (unit, GLO, None)", 0.0005367107190677713], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.708369533817151e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -9.148504173746161e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.4501734503401692e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -4.794532153088432e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.776608006296135e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605073447793e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0695811499518988e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.0922003344511382e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.820546210344337e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000130321689079593], ["'autoclave' (unit, GLO, None)", 0.0004025330393008284], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0200568418564759e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289005161125e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.9003469006803384e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.023337224034617e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.069878705761983e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.0527104879946154e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.820546210344337e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.000130321689079593], ["'autoclave' (unit, GLO, None)", 0.0004025330393008284], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.0200568418564759e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -5.471289005161125e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.9003469006803384e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -8.023337224034616e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.776608006296135e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.947605073447793e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0695811499518988e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.0922003344511382e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000581879900564087], ["'autoclave' (unit, GLO, None)", 0.0004759602422913976], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.214431467514443e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.06483914616693e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.8976512808538315e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.903911129461536e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000298140987788966], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.274321298709592e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.221675220153684e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.667230082840124e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.484527396508189e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000581879900564087], ["'autoclave' (unit, GLO, None)", 0.0004759602422913976], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.796491908350705e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.378108311250788e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00038755994131325173], ["'mixed heating grid' (megajoule, GLO, None)", -0.00039761034137189935], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.484527396508189e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665484984633655], ["'autoclave' (unit, GLO, None)", 0.0006346136563885301], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.1934324622961461e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.5287450266870826e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016429171425235673], ["'mixed heating grid' (megajoule, GLO, None)", -0.00016988805494981153], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000839138541790136], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.1893588374757022e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.5729668132237366e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002441473262771866], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.913259903357158e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001665484984633655], ["'autoclave' (unit, GLO, None)", 0.0006346136563885301], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.8774419953541e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.0176144706518878e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011037033111312169], ["'mixed heating grid' (megajoule, GLO, None)", -0.001134996792643422], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.913259903357158e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.555731126211559e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0004757408480885753], ["'autoclave' (unit, GLO, None)", 0.0009519204845827955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.2499702519286009e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719426458644], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.522849221268998e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.516948390304873e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5039010766177267e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.542246172594034e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.555731126211559e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0004757408480885753], ["'autoclave' (unit, GLO, None)", 0.0009519204845827955], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.2499702519286009e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00012109719426458644], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.522849221268998e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.516948390304873e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.316669420709532e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.06483914616693e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.055129669303283e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.3014712182919915e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.662834051890125e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787042404428764], ["'autoclave' (unit, GLO, None)", 0.0007139403634370964], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.463494767129822e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252230010038e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9045698442537996e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0905688592236074e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.49844234279987e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.735328459416951e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.662834051890125e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787042404428764], ["'autoclave' (unit, GLO, None)", 0.0007139403634370964], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.463494767129822e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.242252230010038e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9045698442537996e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00010905688592236072], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.316669420709532e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.06483914616693e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.055129669303283e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.3014712182919915e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164943873950947], ["'autoclave' (unit, GLO, None)", 0.00048807710888288514], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.23852109607007e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.0919189910440875e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0307666212362685e-05], ["'mixed heating grid' (megajoule, GLO, None)", -6.115906505649332e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003192564026946304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.583326570906043e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.445703444044098e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 9.090547566490977e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6126692782793466e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0006164943873950947], ["'autoclave' (unit, GLO, None)", 0.00048807710888288514], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.8124766151492987e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.3961698224670203e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003963075208240976], ["'mixed heating grid' (megajoule, GLO, None)", -0.00041188758099271005], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.6126692782793466e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001764860038526168], ["'autoclave' (unit, GLO, None)", 0.0006507694785105135], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.2002541047749827e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.5369186679389952e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00016799992730586746], ["'mixed heating grid' (megajoule, GLO, None)", -0.00017598833006052155], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.000898569345332569], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.2823604242532747e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6404526193200236e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002560717624363656], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00010277815446750419]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001764860038526168], ["'autoclave' (unit, GLO, None)", 0.0006507694785105135], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.92246933844873e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.0230552835217021e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011286148962599302], ["'mixed heating grid' (megajoule, GLO, None)", -0.0011757518221064633], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00010277815446750419]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.833448057305939e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00048772795212951827], ["'autoclave' (unit, GLO, None)", 0.0009761542177657706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3024854742035462e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714343568268], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.587845998235636e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.756606150199664e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5378454884152481e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.5976245565777846e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.833448057305939e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00048772795212951827], ["'autoclave' (unit, GLO, None)", 0.0009761542177657706], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.3024854742035462e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001236714343568268], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.587845998235636e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.756606150199664e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.338024627156027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0919189910440875e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.169228532488229e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.491834413236134e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.824083803821364e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386397606475913], ["'autoclave' (unit, GLO, None)", 0.0007321156633243277], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.777059898811133e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205392689224e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9175691996471273e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.130674024119707e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.66768898985754e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.01308566658545e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.824083803821364e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386397606475913], ["'autoclave' (unit, GLO, None)", 0.0007321156633243277], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -7.777059898811133e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.396205392689224e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9175691996471273e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00011306740241197067], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.338024627156027e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0919189910440875e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.169228532488229e-05], ["'mixed heating grid' (megajoule, GLO, None)", -5.491834413236134e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873817040139], ["'autoclave' (unit, GLO, None)", 0.004165478943898044], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.55078405261804e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.665084981563085e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005292136078473239], ["'mixed heating grid' (megajoule, GLO, None)", -9.126964721037786e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010571499980646761], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9896354767252047e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.370729827266743e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00046211108413704626], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001635874186128525]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.001999873817040139], ["'autoclave' (unit, GLO, None)", 0.004165478943898044], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0001029024932111036], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.1105658546755623e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034776894229966997], ["'mixed heating grid' (megajoule, GLO, None)", -0.0006146731342739734], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0001635874186128525]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755802188060175], ["'autoclave' (unit, GLO, None)", 0.005553971925197392], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.3914725976006185e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.025806962699587e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001474237907574688], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002626330664625159], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00297542217998336], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.997932017328287e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0001015391791157382], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0013017213637663276], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00046539585231947597]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005755802188060175], ["'autoclave' (unit, GLO, None)", 0.005553971925197392], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0002898661780594468], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.345445972131336e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009903854661142774], ["'mixed heating grid' (megajoule, GLO, None)", -0.0017546124014729786], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00046539585231947597]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007223659272774915], ["'mechanical disinfection' (unit, GLO, None)", 0.004000202675477854], ["'autoclave' (unit, GLO, None)", 0.008330957887796092], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.511844376701055e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002990407377814377], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.882988347508393e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.059498873423919e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.3494947000106757e-05], ["'mixed heating grid' (megajoule, GLO, None)", -2.3841867026384424e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0007223659272774915], ["'mechanical disinfection' (unit, GLO, None)", 0.004000202675477854], ["'autoclave' (unit, GLO, None)", 0.008330957887796092], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.511844376701055e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0002990407377814377], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.882988347508393e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.059498873423919e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.243960116158072e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084981563085e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00045361166386913466], ["'mixed heating grid' (megajoule, GLO, None)", -8.195641790319645e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004267269038516166], ["'mechanical disinfection' (unit, GLO, None)", 0.002000101337738927], ["'autoclave' (unit, GLO, None)", 0.006248218415847067], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.096900473274606e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001788421658498167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.1765976695016786e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -5.119872057218707e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.728573014058831e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1958186430420938e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0004267269038516166], ["'mechanical disinfection' (unit, GLO, None)", 0.002000101337738927], ["'autoclave' (unit, GLO, None)", 0.006248218415847067], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.096900473274606e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001788421658498167], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.1765976695016786e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0005119872057218706], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.243960116158072e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.665084981563085e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00045361166386913466], ["'mixed heating grid' (megajoule, GLO, None)", -8.195641790319645e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.01426229124802e-09], ["'autoclave' (unit, GLO, None)", 1.4473328287501024e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.951965836322395e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.59012889529352e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.807461317747592e-10], ["'mixed heating grid' (megajoule, GLO, None)", -1.636977387230513e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.566933948610118e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7011349020651506e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6950029604690348e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.2422755986490915e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.718121800703229e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.01426229124802e-09], ["'autoclave' (unit, GLO, None)", 1.4473328287501024e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.276538078307383e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.396352024659073e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.187760294519846e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.10245415874708e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -9.718121800703229e-11]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679699746952e-09], ["'autoclave' (unit, GLO, None)", 1.9297771050001366e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.251818362995968e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.894635235368411e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.035070813725434e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.710485951010251e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5668522703041725e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.119920579031035e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.1059924118668304e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 6.316269291969272e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.764744145200064e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.904679699746952e-09], ["'autoclave' (unit, GLO, None)", 1.9297771050001366e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.4863487544527841e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9268240624488815e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.382534751784779e-09], ["'mixed heating grid' (megajoule, GLO, None)", -3.1470055076962105e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -2.764744145200064e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.093605034514646e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.4521275311549594e-09], ["'autoclave' (unit, GLO, None)", 2.8946656575002056e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.6107340241432134e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827057893018474e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0907184062862163e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8175348051315217e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.609026360256359e-12], ["'mixed heating grid' (megajoule, GLO, None)", -4.2761858278674626e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 1.093605034514646e-10], ["'mechanical disinfection' (unit, GLO, None)", 1.4521275311549594e-09], ["'autoclave' (unit, GLO, None)", 2.8946656575002056e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -3.6107340241432134e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0827057893018474e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.0907184062862163e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.8175348051315217e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.709592029505952e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012889529352e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.549252558069364e-10], ["'mixed heating grid' (megajoule, GLO, None)", -1.4699388783294402e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 6.423814490121799e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260637655774797e-10], ["'autoclave' (unit, GLO, None)", 2.1709992431251537e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.1559468677843225e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681354656388e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.1814368125724326e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.041526095220093e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2980579611362236e-12], ["'mixed heating grid' (megajoule, GLO, None)", -2.144774454289774e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 6.423814490121799e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260637655774797e-10], ["'autoclave' (unit, GLO, None)", 2.1709992431251537e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.1559468677843225e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.2455681354656388e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.1814368125724326e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.0415260952200926e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.709592029505952e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.59012889529352e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.549252558069364e-10], ["'mixed heating grid' (megajoule, GLO, None)", -1.4699388783294402e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981149007827225e-07], ["'autoclave' (unit, GLO, None)", 6.098544893047043e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.0002482485006196e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -3.615558617396582e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.157473068063667e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.566213898918666e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.602655818756719e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.628133148618916e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 8.795696388743495e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.527935282098106e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.7066008807915125e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.981149007827225e-07], ["'autoclave' (unit, GLO, None)", 6.098544893047043e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.9908189312480746e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.4114780870158853e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.046339444727552e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.4017358911084893e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -3.7066008807915125e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425453175820563e-06], ["'autoclave' (unit, GLO, None)", 8.13139319072939e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -8.496030086875588e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.091301637727959e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7152960689605927e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.0261962443827182e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.325355781268911e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.596816772885305e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.6495976741882052e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 4.30404304816368e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0545044910859397e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.425453175820563e-06], ["'autoclave' (unit, GLO, None)", 8.13139319072939e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -5.607940651403028e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -7.264287497338086e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.152327102737629e-06], ["'mixed heating grid' (megajoule, GLO, None)", -6.855864270982415e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.0545044910859397e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.684096627771281e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.010848495880144e-07], ["'autoclave' (unit, GLO, None)", 1.219708978609409e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.9208023754943294e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977860153798e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.558231092016147e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.932282027049949e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5701556323562346e-09], ["'mixed heating grid' (megajoule, GLO, None)", -9.315824062481414e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.684096627771281e-08], ["'mechanical disinfection' (unit, GLO, None)", 6.010848495880144e-07], ["'autoclave' (unit, GLO, None)", 1.219708978609409e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -2.9208023754943294e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.4187977860153798e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.558231092016147e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -6.932282027049949e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.226461929001138e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617396582e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.277834058340285e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.202314521477986e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.335804190164459e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005424247940072e-07], ["'autoclave' (unit, GLO, None)", 9.147817339570564e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.743992963967552e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160611774872e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.116462184032294e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1600722376907614e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.828787186538089e-10], ["'mixed heating grid' (megajoule, GLO, None)", -4.672468006338334e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.335804190164459e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005424247940072e-07], ["'autoclave' (unit, GLO, None)", 9.147817339570564e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -1.743992963967552e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -8.485160611774872e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.116462184032294e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -1.1600722376907611e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.226461929001138e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.615558617396582e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.277834058340285e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.202314521477986e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845728670478], ["'autoclave' (unit, GLO, None)", 0.011815227409386099], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.7124194447173827e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -2.0018874365071263e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014389345460925935], ["'mixed heating grid' (megajoule, GLO, None)", -0.0014256985524042872], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04095001057027948], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024665677894343904], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00020767508004984272], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.003579365210753256], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001236501505904178]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05704845728670478], ["'autoclave' (unit, GLO, None)", 0.011815227409386099], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.0001136278323130226], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.3352038223308999e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00945585558860847], ["'mixed heating grid' (megajoule, GLO, None)", -0.009601643312110506], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.001236501505904178]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1631995341405314], ["'autoclave' (unit, GLO, None)", 0.015753636545848132], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.8491877733585704e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -6.042394189090317e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004008460521257939], ["'mixed heating grid' (megajoule, GLO, None)", -0.004102520324265398], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1152566522673429], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007423650628394767], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0006255961833688522], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0100827189035303], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0035177685247084053]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.1631995341405314], ["'autoclave' (unit, GLO, None)", 0.015753636545848132], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -0.00032007840088175385], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.0221408127987216e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02692863221973282], ["'mixed heating grid' (megajoule, GLO, None)", -0.027408327272751807], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0035177685247084053]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001966191602962182], ["'mechanical disinfection' (unit, GLO, None)", 0.011721161571878419], ["'autoclave' (unit, GLO, None)", 0.023630454818772205], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003551219022296934], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123314429455], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7142849898831813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00023125708543967385], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.669283092536113e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.724273769545893e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.001966191602962182], ["'mechanical disinfection' (unit, GLO, None)", 0.011721161571878419], ["'autoclave' (unit, GLO, None)", 0.023630454818772205], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.0003551219022296934], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.002033123314429455], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -4.7142849898831813e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00023125708543967385], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.939328778156779e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874365071263e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012333724680793656], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012802191082814007]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001129587444995076], ["'mechanical disinfection' (unit, GLO, None)", 0.005860580785939209], ["'autoclave' (unit, GLO, None)", 0.01772284111407915], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.000212041082969381], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915194999535], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.428569979766363e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.00038699366751241527], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8295024943177257e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.867956062537862e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001129587444995076], ["'mechanical disinfection' (unit, GLO, None)", 0.005860580785939209], ["'autoclave' (unit, GLO, None)", 0.01772284111407915], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", -0.000212041082969381], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.001215915194999535], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", -9.428569979766363e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", -0.0038699366751241524], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", -1.939328778156779e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0018874365071263e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012333724680793656], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012802191082814007]]</t>
   </si>
 </sst>
 </file>
@@ -560,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,64 +1014,64 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -701,64 +1079,454 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T3" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" t="s">
+        <v>175</v>
+      </c>
+      <c r="U4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>152</v>
+      </c>
+      <c r="R5" t="s">
+        <v>160</v>
+      </c>
+      <c r="S5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T5" t="s">
+        <v>176</v>
+      </c>
+      <c r="U5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>153</v>
+      </c>
+      <c r="R6" t="s">
+        <v>161</v>
+      </c>
+      <c r="S6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T6" t="s">
+        <v>177</v>
+      </c>
+      <c r="U6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" t="s">
+        <v>162</v>
+      </c>
+      <c r="S7" t="s">
+        <v>170</v>
+      </c>
+      <c r="T7" t="s">
+        <v>178</v>
+      </c>
+      <c r="U7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>155</v>
+      </c>
+      <c r="R8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S8" t="s">
+        <v>171</v>
+      </c>
+      <c r="T8" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="U3" t="s">
-        <v>62</v>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>156</v>
+      </c>
+      <c r="R9" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T9" t="s">
+        <v>180</v>
+      </c>
+      <c r="U9" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
